--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1325" documentId="8_{DF39C3F4-3D1F-4401-A869-CC4FEA15FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80BED9E-8B9D-472F-BA28-B13F6B315AD4}"/>
+  <xr:revisionPtr revIDLastSave="1327" documentId="8_{DF39C3F4-3D1F-4401-A869-CC4FEA15FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E67DD8-E389-49A2-A147-8A980958DDE5}"/>
   <bookViews>
-    <workbookView xWindow="8410" yWindow="2710" windowWidth="18500" windowHeight="16160" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="411">
   <si>
     <t>Title</t>
   </si>
@@ -1071,35 +1071,6 @@
   </si>
   <si>
     <t>Pipelined ADCs are widely used for high-speed high-resolution applications, but there are two challenges. First, limited by the kT/C noise requirement, its 1&lt;sup&gt;st&lt;/sup&gt;-stage sampling capacitor has to be sufficiently large (e.g., several pF). This poses significant burdens for the ADC driver and the reference buffer, leading to high design complexity and huge power/area costs on the system level, especially when high linearity, high sampling rate, and low supply voltage are required. Second, it is challenging to design a low-power, high-speed, and PVT-robust residue amplifier in an advanced process. To address these two challenges, this work proposes a PVT-robust ring-amp with kT/C noise cancellation capability. It enables a 1.3mW 200MS/s 67dB-SNDR pipelined ADC with only 128fF input capacitance.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List of all known publications on IEEEXplore containing ring amplifier (ringamp) circuits.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-For use in publications and presentations, please cite as:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Hershberg, "Ringamp Survey 2012-2022," [Online]. Available: http://benjamin.hershberg.com/ringamp-survey</t>
-    </r>
   </si>
   <si>
     <t>A 2.5-GS/s Time-Interleaved SAR-Assisted Ringamp-Based Pipelined ADC with Digital Background Calibration</t>
@@ -1356,23 +1327,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1397,13 +1357,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1425,16 +1382,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4787,2306 +4741,2281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.7265625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="90.26953125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="18.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.36328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="60.453125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.26953125" style="4"/>
+    <col min="1" max="2" width="12.7265625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20" style="3" customWidth="1"/>
+    <col min="5" max="5" width="90.26953125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="18.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="60.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="1.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2012</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>411</v>
+        <v>171</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D64" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I71" s="15"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I72" s="15"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I73" s="15"/>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="15" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>393</v>
-      </c>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H79">
-    <sortCondition ref="A4:A79"/>
-    <sortCondition ref="B4:B79"/>
-    <sortCondition ref="E4:E79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
+    <sortCondition ref="A2:A77"/>
+    <sortCondition ref="B2:B77"/>
+    <sortCondition ref="E2:E77"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7115,101 +7044,101 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2012</v>
       </c>
-      <c r="B2" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A2)</f>
+      <c r="B2" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2013</v>
       </c>
-      <c r="B3" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A3)</f>
+      <c r="B3" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2014</v>
       </c>
-      <c r="B4" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A4)</f>
+      <c r="B4" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2015</v>
       </c>
-      <c r="B5" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A5)</f>
+      <c r="B5" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A5)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2016</v>
       </c>
-      <c r="B6" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A6)</f>
+      <c r="B6" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2017</v>
       </c>
-      <c r="B7" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A7)</f>
+      <c r="B7" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A7)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2018</v>
       </c>
-      <c r="B8" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A8)</f>
+      <c r="B8" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A8)</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2019</v>
       </c>
-      <c r="B9" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A9)</f>
+      <c r="B9" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A9)</f>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2020</v>
       </c>
-      <c r="B10" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A10)</f>
+      <c r="B10" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A10)</f>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A11)</f>
+      <c r="B11" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A11)</f>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2022</v>
       </c>
-      <c r="B12" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$A$4:$A$997,Analysis!A12)</f>
+      <c r="B12" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A12)</f>
         <v>13</v>
       </c>
     </row>
@@ -7230,8 +7159,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A18)</f>
+      <c r="B18" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A18)</f>
         <v>25</v>
       </c>
     </row>
@@ -7239,8 +7168,8 @@
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A19)</f>
+      <c r="B19" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
         <v>21</v>
       </c>
     </row>
@@ -7248,8 +7177,8 @@
       <c r="A20" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A20)</f>
+      <c r="B20" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A20)</f>
         <v>12</v>
       </c>
     </row>
@@ -7257,8 +7186,8 @@
       <c r="A21" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A21)</f>
+      <c r="B21" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A21)</f>
         <v>3</v>
       </c>
     </row>
@@ -7266,8 +7195,8 @@
       <c r="A22" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A22)</f>
+      <c r="B22" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -7275,8 +7204,8 @@
       <c r="A23" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A23)</f>
+      <c r="B23" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A23)</f>
         <v>3</v>
       </c>
     </row>
@@ -7284,8 +7213,8 @@
       <c r="A24" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A24)</f>
+      <c r="B24" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -7293,8 +7222,8 @@
       <c r="A25" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A25)</f>
+      <c r="B25" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -7302,8 +7231,8 @@
       <c r="A26" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A26)</f>
+      <c r="B26" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A26)</f>
         <v>2</v>
       </c>
     </row>
@@ -7311,17 +7240,17 @@
       <c r="A27" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A27)</f>
+      <c r="B27" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>370</v>
-      </c>
-      <c r="B28" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A28)</f>
+        <v>369</v>
+      </c>
+      <c r="B28" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -7329,13 +7258,13 @@
       <c r="A29" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$C$4:$D$999,Analysis!A29)</f>
+      <c r="B29" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A29)</f>
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7343,7 +7272,7 @@
       <c r="A32" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
         <v>84</v>
       </c>
@@ -7352,8 +7281,8 @@
       <c r="A33" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="4">
-        <f>COUNTA('Ringamp Publication List'!$A$4:$A$999)</f>
+      <c r="B33" s="3">
+        <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
         <v>84</v>
       </c>
     </row>
@@ -7369,8 +7298,8 @@
       <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A37)</f>
+      <c r="B37" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A37)</f>
         <v>15</v>
       </c>
     </row>
@@ -7378,8 +7307,8 @@
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A38)</f>
+      <c r="B38" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A38)</f>
         <v>13</v>
       </c>
     </row>
@@ -7387,8 +7316,8 @@
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A39)</f>
+      <c r="B39" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A39)</f>
         <v>6</v>
       </c>
     </row>
@@ -7396,8 +7325,8 @@
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A40)</f>
+      <c r="B40" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A40)</f>
         <v>3</v>
       </c>
     </row>
@@ -7405,8 +7334,8 @@
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A41)</f>
+      <c r="B41" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A41)</f>
         <v>2</v>
       </c>
     </row>
@@ -7414,8 +7343,8 @@
       <c r="A42" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A42)</f>
+      <c r="B42" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -7423,8 +7352,8 @@
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A43)</f>
+      <c r="B43" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A43)</f>
         <v>15</v>
       </c>
     </row>
@@ -7432,8 +7361,8 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A44)</f>
+      <c r="B44" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A44)</f>
         <v>2</v>
       </c>
     </row>
@@ -7441,8 +7370,8 @@
       <c r="A45" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="4">
-        <f>COUNTIF('Ringamp Publication List'!$B$4:$B$999,Analysis!A45)</f>
+      <c r="B45" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A45)</f>
         <v>8</v>
       </c>
     </row>
@@ -7450,8 +7379,8 @@
       <c r="A46" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="4">
-        <f>COUNTA('Ringamp Publication List'!$A$4:$A$999)-SUM(B37:B45)</f>
+      <c r="B46" s="3">
+        <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B37:B45)</f>
         <v>19</v>
       </c>
     </row>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1327" documentId="8_{DF39C3F4-3D1F-4401-A869-CC4FEA15FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E67DD8-E389-49A2-A147-8A980958DDE5}"/>
+  <xr:revisionPtr revIDLastSave="1329" documentId="8_{DF39C3F4-3D1F-4401-A869-CC4FEA15FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC67EF8E-8A76-4D89-9E23-4D45A8563597}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -1196,91 +1196,91 @@
     <t>Multi-Stage FIA</t>
   </si>
   <si>
-    <t>{"class":"ADC","sub_class”":"SAR","sub_sub_class","NS-SAR","performance":{"source":"measured","tech":"40","fs":"10e6","OSR":"8","SNDR_nyq":"83.8","SFDR_nyq":"94.3","P_nyq":"107e-6"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"100e6","OSR":"1","SNDR_nyq":"71.7","SFDR_nyq":"87.2","P_nyq":"0.7e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"1e9","OSR":"1","SNDR_nyq":"59.5","SFDR_nyq":"75.9","P_nyq":"10.9e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"40e6","OSR":"1","SNDR_nyq":"75.7","SFDR_nyq":"81.4","P_nyq":"8.21e-4"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"4e9","OSR":"1","SNDR_nyq":"61.9","SFDR_nyq":"75.2","P_nyq":"75e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"75.5","SFDR_nyq":"62.3","P_nyq":"2.8e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"200e6","OSR":"1","SNDR_nyq":"66.7","SFDR_nyq":"87.2","P_nyq":"1.30e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class","DT Delta-Sigma","performance":{"source":"measured","tech":"180","fs":"5.8e6","OSR":"145","SNDR_nyq":"105.4","SFDR_nyq":"","P_nyq":"2.04e-4","DR":"108.8"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"130e6","OSR":"1","SNDR_nyq":"72.5","SFDR_nyq":"87.5","P_nyq":"820e-6"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"62.3","SFDR_nyq":"75.5","P_nyq":"3.3e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class","DT Delta-Sigma","performance":{"source":"measured","tech":"28","fs":"950e6","OSR":"10","SNDR_nyq":"67","SFDR_nyq":"","P_nyq":"4.7e-3","DR":"70"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"100e6","OSR":"1","SNDR_nyq":"71.7","SFDR_nyq":"85.1","P_nyq":"0.7e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Oversampling","sub_sub_class","NS-SAR","performance":{"source":"measured","tech":"40","fs":"10e6","OSR":"8","SNDR_nyq":"83.8","SFDR_nyq":"","P_nyq":"107e-6","DR":"85.5"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"100e6","OSR":"1","SNDR_nyq":"72.6","SFDR_nyq":"86.5","P_nyq":"2.5e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"58.7","SFDR_nyq":"72.4","P_nyq":"14.5e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"1e9","OSR":"1","SNDR_nyq":"56.6","SFDR_nyq":"73.1","P_nyq":"24.8e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"180","fs":"15e6","OSR":"1","SNDR_nyq":"88.0","SFDR_nyq":"96.5","P_nyq":"9.8e-3", "DR":"93.9"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"90","fs":"24e6","OSR":"1","SNDR_nyq":"74.3","SFDR_nyq":"85.5","P_nyq":"5.1e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"600e6","OSR":"1","SNDR_nyq":"60.2","SFDR_nyq":"78.3","P_nyq":"6.0e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"3.2e9","OSR":"1","SNDR_nyq":"61.7","SFDR_nyq":"73.3","P_nyq":"61.3e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"56.3","SFDR_nyq":"69.2","P_nyq":"14.2e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"100e6","OSR":"1","SNDR_nyq":"90.4","SFDR_nyq":"90.4","P_nyq":"2.3e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"72.32","SFDR_nyq":"78.13","P_nyq":"2.74e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"65","fs":"100e6","OSR":"1","SNDR_nyq":"56.6","SFDR_nyq":"64.7","P_nyq":"2.46e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Pipelined-SAR","performance":{"source":"measured","tech":"65","fs":"50e6","OSR":"1","SNDR_nyq":"70.9","SFDR_nyq":"84.6","P_nyq":"1.0e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"65","fs":"100e6","OSR":"1","SNDR_nyq":"56.3","SFDR_nyq":"67.6","P_nyq":"2.46e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"75.9","SFDR_nyq":"91.4","P_nyq":"2.96e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"30e6","OSR":"1","SNDR_nyq":"61.5","SFDR_nyq":"74.2","P_nyq":"2.6e-3"}}</t>
-  </si>
-  <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class","Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"76.8","SFDR_nyq":"95.4","P_nyq":"5.1e-3"}}</t>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"76.8","SFDR_nyq":"95.4","P_nyq":"5.1e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"30e6","OSR":"1","SNDR_nyq":"61.5","SFDR_nyq":"74.2","P_nyq":"2.6e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"75.9","SFDR_nyq":"91.4","P_nyq":"2.96e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"65","fs":"100e6","OSR":"1","SNDR_nyq":"56.3","SFDR_nyq":"67.6","P_nyq":"2.46e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"65","fs":"50e6","OSR":"1","SNDR_nyq":"70.9","SFDR_nyq":"84.6","P_nyq":"1.0e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"65","fs":"100e6","OSR":"1","SNDR_nyq":"56.6","SFDR_nyq":"64.7","P_nyq":"2.46e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"72.32","SFDR_nyq":"78.13","P_nyq":"2.74e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"100e6","OSR":"1","SNDR_nyq":"90.4","SFDR_nyq":"90.4","P_nyq":"2.3e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"56.3","SFDR_nyq":"69.2","P_nyq":"14.2e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"180","fs":"15e6","OSR":"1","SNDR_nyq":"88.0","SFDR_nyq":"96.5","P_nyq":"9.8e-3", "DR":"93.9"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"3.2e9","OSR":"1","SNDR_nyq":"61.7","SFDR_nyq":"73.3","P_nyq":"61.3e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"600e6","OSR":"1","SNDR_nyq":"60.2","SFDR_nyq":"78.3","P_nyq":"6.0e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"1e9","OSR":"1","SNDR_nyq":"56.6","SFDR_nyq":"73.1","P_nyq":"24.8e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"90","fs":"24e6","OSR":"1","SNDR_nyq":"74.3","SFDR_nyq":"85.5","P_nyq":"5.1e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"58.7","SFDR_nyq":"72.4","P_nyq":"14.5e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"100e6","OSR":"1","SNDR_nyq":"72.6","SFDR_nyq":"86.5","P_nyq":"2.5e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Oversampling","sub_sub_class":"NS-SAR","performance":{"source":"measured","tech":"40","fs":"10e6","OSR":"8","SNDR_nyq":"83.8","SFDR_nyq":"","P_nyq":"107e-6","DR":"85.5"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"100e6","OSR":"1","SNDR_nyq":"71.7","SFDR_nyq":"85.1","P_nyq":"0.7e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"SAR","sub_sub_class":"NS-SAR","performance":{"source":"measured","tech":"40","fs":"10e6","OSR":"8","SNDR_nyq":"83.8","SFDR_nyq":"94.3","P_nyq":"107e-6"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"100e6","OSR":"1","SNDR_nyq":"71.7","SFDR_nyq":"87.2","P_nyq":"0.7e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"1e9","OSR":"1","SNDR_nyq":"59.5","SFDR_nyq":"75.9","P_nyq":"10.9e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"40e6","OSR":"1","SNDR_nyq":"75.7","SFDR_nyq":"81.4","P_nyq":"8.21e-4"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"4e9","OSR":"1","SNDR_nyq":"61.9","SFDR_nyq":"75.2","P_nyq":"75e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"75.5","SFDR_nyq":"62.3","P_nyq":"2.8e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"200e6","OSR":"1","SNDR_nyq":"66.7","SFDR_nyq":"87.2","P_nyq":"1.30e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class":"DT Delta-Sigma","performance":{"source":"measured","tech":"180","fs":"5.8e6","OSR":"145","SNDR_nyq":"105.4","SFDR_nyq":"","P_nyq":"2.04e-4","DR":"108.8"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"130e6","OSR":"1","SNDR_nyq":"72.5","SFDR_nyq":"87.5","P_nyq":"820e-6"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"62.3","SFDR_nyq":"75.5","P_nyq":"3.3e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class":"DT Delta-Sigma","performance":{"source":"measured","tech":"28","fs":"950e6","OSR":"10","SNDR_nyq":"67","SFDR_nyq":"","P_nyq":"4.7e-3","DR":"70"}}</t>
   </si>
 </sst>
 </file>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4811,7 +4811,7 @@
         <v>179</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4838,7 +4838,7 @@
         <v>106</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4865,7 @@
         <v>171</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4892,7 +4892,7 @@
         <v>102</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4919,7 +4919,7 @@
         <v>218</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>160</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4998,7 +4998,7 @@
         <v>258</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5025,7 +5025,7 @@
         <v>255</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -5152,7 +5152,7 @@
         <v>164</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -5306,7 +5306,7 @@
         <v>226</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5333,7 +5333,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -5738,7 +5738,7 @@
         <v>131</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5767,7 +5767,7 @@
         <v>68</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5794,7 +5794,7 @@
         <v>73</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5821,7 +5821,7 @@
         <v>292</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5848,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5875,7 +5875,7 @@
         <v>280</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5981,7 +5981,7 @@
         <v>121</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -6084,7 +6084,7 @@
         <v>314</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -6167,7 +6167,7 @@
         <v>309</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6194,7 +6194,7 @@
         <v>336</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -6271,7 +6271,7 @@
         <v>60</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -6427,7 +6427,7 @@
         <v>304</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6454,7 +6454,7 @@
         <v>51</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6483,7 +6483,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -6637,7 +6637,7 @@
         <v>40</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6664,7 +6664,7 @@
         <v>343</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6691,7 +6691,7 @@
         <v>109</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6718,7 +6718,7 @@
         <v>24</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6745,7 +6745,7 @@
         <v>21</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -6876,7 +6876,7 @@
         <v>358</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -6977,7 +6977,7 @@
         <v>376</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bhershbe\github\RingampSurvey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1329" documentId="8_{DF39C3F4-3D1F-4401-A869-CC4FEA15FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC67EF8E-8A76-4D89-9E23-4D45A8563597}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324925C-13B0-4F54-9512-B4D26668156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="27770" windowHeight="17640" activeTab="1" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="410">
   <si>
     <t>Title</t>
   </si>
@@ -1053,9 +1053,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>(2022 still incomplete)</t>
   </si>
   <si>
     <t>a quick sanity check here…</t>
@@ -4743,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4784,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4811,7 +4808,7 @@
         <v>179</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4838,7 +4835,7 @@
         <v>106</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4862,7 @@
         <v>171</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4892,7 +4889,7 @@
         <v>102</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4919,7 +4916,7 @@
         <v>218</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -4971,7 +4968,7 @@
         <v>160</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4998,7 +4995,7 @@
         <v>258</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5025,7 +5022,7 @@
         <v>255</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -5152,7 +5149,7 @@
         <v>164</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -5306,7 +5303,7 @@
         <v>226</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5333,7 +5330,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -5738,7 +5735,7 @@
         <v>131</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5767,7 +5764,7 @@
         <v>68</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5794,7 +5791,7 @@
         <v>73</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5821,7 +5818,7 @@
         <v>292</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5848,7 +5845,7 @@
         <v>77</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5875,7 +5872,7 @@
         <v>280</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5902,7 +5899,7 @@
         <v>11</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -5981,7 +5978,7 @@
         <v>121</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -6069,7 +6066,7 @@
         <v>311</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>312</v>
@@ -6084,7 +6081,7 @@
         <v>314</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6111,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -6152,7 +6149,7 @@
         <v>311</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>307</v>
@@ -6167,7 +6164,7 @@
         <v>309</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6194,7 +6191,7 @@
         <v>336</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -6271,7 +6268,7 @@
         <v>60</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -6310,7 +6307,7 @@
         <v>134</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>316</v>
@@ -6369,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>34</v>
@@ -6427,7 +6424,7 @@
         <v>304</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6454,7 +6451,7 @@
         <v>51</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6483,7 +6480,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -6572,7 +6569,7 @@
         <v>330</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>321</v>
@@ -6637,7 +6634,7 @@
         <v>40</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6652,19 +6649,19 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="I73" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6691,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6718,7 +6715,7 @@
         <v>24</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6745,7 +6742,7 @@
         <v>21</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -6787,16 +6784,16 @@
         <v>327</v>
       </c>
       <c r="E78" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="I78" s="5"/>
     </row>
@@ -6812,16 +6809,16 @@
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I79" s="5"/>
     </row>
@@ -6833,22 +6830,22 @@
         <v>86</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="G80" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="I80" s="5"/>
     </row>
@@ -6864,19 +6861,19 @@
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -6884,23 +6881,23 @@
         <v>2022</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="I82" s="5"/>
     </row>
@@ -6912,20 +6909,20 @@
         <v>12</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="I83" s="5"/>
     </row>
@@ -6941,16 +6938,16 @@
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -6965,19 +6962,19 @@
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="I85" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -7025,9 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F627AA-E3AE-4351-92AE-68BECE4A1E4C}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7142,11 +7137,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>331</v>
@@ -7247,7 +7237,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
@@ -7265,7 +7255,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bhershbe\github\RingampSurvey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324925C-13B0-4F54-9512-B4D26668156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A854F-77B8-4C43-BFEF-0A288797FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="27770" windowHeight="17640" activeTab="1" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="411">
   <si>
     <t>Title</t>
   </si>
@@ -1278,6 +1278,9 @@
   </si>
   <si>
     <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class":"DT Delta-Sigma","performance":{"source":"measured","tech":"28","fs":"950e6","OSR":"10","SNDR_nyq":"67","SFDR_nyq":"","P_nyq":"4.7e-3","DR":"70"}}</t>
+  </si>
+  <si>
+    <t>(2022 still incomplete)</t>
   </si>
 </sst>
 </file>
@@ -4740,9 +4743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7022,7 +7023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F627AA-E3AE-4351-92AE-68BECE4A1E4C}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7137,6 +7140,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>410</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>331</v>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bhershbe\github\RingampSurvey\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\benjamin\github\RingampSurvey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A854F-77B8-4C43-BFEF-0A288797FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE409D0-DD55-46B3-9E1B-D4568F5B5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="27770" windowHeight="17640" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="8670" yWindow="3440" windowWidth="28800" windowHeight="15450" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -1214,9 +1214,6 @@
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"180","fs":"20e6","OSR":"1","SNDR_nyq":"72.32","SFDR_nyq":"78.13","P_nyq":"2.74e-3"}}</t>
   </si>
   <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"100e6","OSR":"1","SNDR_nyq":"90.4","SFDR_nyq":"90.4","P_nyq":"2.3e-3"}}</t>
-  </si>
-  <si>
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"56.3","SFDR_nyq":"69.2","P_nyq":"14.2e-3"}}</t>
   </si>
   <si>
@@ -1262,9 +1259,6 @@
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"16","fs":"4e9","OSR":"1","SNDR_nyq":"61.9","SFDR_nyq":"75.2","P_nyq":"75e-3"}}</t>
   </si>
   <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"75.5","SFDR_nyq":"62.3","P_nyq":"2.8e-3"}}</t>
-  </si>
-  <si>
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"28","fs":"200e6","OSR":"1","SNDR_nyq":"66.7","SFDR_nyq":"87.2","P_nyq":"1.30e-3"}}</t>
   </si>
   <si>
@@ -1281,6 +1275,12 @@
   </si>
   <si>
     <t>(2022 still incomplete)</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"100e6","OSR":"1","SNDR_nyq":"73.2","SFDR_nyq":"90.4","P_nyq":"2.3e-3"}}</t>
+  </si>
+  <si>
+    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"62.9","SFDR_nyq":"75.5","P_nyq":"2.8e-3"}}</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1367,31 +1367,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4741,9 +4728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4781,2232 +4770,2119 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>2012</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2012</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2012</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2013</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>2014</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>2015</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>2015</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>2015</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>2015</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>2016</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>2016</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>2017</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>2017</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>2017</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>2017</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>2017</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D64" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="E67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C84" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67" s="13"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68" s="13"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="I71" s="13"/>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
@@ -7142,7 +7018,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\benjamin\github\RingampSurvey\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhershbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE409D0-DD55-46B3-9E1B-D4568F5B5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="3440" windowWidth="28800" windowHeight="15450" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Interesting Counter-Arguments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="604">
   <si>
     <t>Title</t>
   </si>
@@ -440,9 +441,6 @@
     <t>High Linear Ring Amplifier Design with Analysis on Settling Procedures</t>
   </si>
   <si>
-    <t>Undefined</t>
-  </si>
-  <si>
     <t>10.1109/ASICON47005.2019.8983615</t>
   </si>
   <si>
@@ -1142,9 +1140,6 @@
     <t>10.1109/JSSC.2022.3178798</t>
   </si>
   <si>
-    <t>Wireless</t>
-  </si>
-  <si>
     <t>This paper demonstrates a proposed architecture of multi-stage noise-shaping (MASH) structure with noise shaping successive-approximation (NSSAR) ADC. The proposed intrinsic stable 4th order MASH NSSAR ADC can not only take advantage of sharp noise shaping effect but also gain benefits from hardware reuse. With ultra-low oversampling ratio (OSR) the MASH NSSAR is realized in Intel 22nm FinFET process with 0. 9V supply. The noise leakage introduced by the analog and digital filter mismatch will be analyzed and indicates no calibration needed in the proposed MASH under reasonable mismatch range. A PVT stable ring amplifier that can achieve high-speed settling is also proposed in this article. With 100MHz bandwidth (OSR=3) and 50MHz (OSR=6), the topology can achieve 78dB and 85dB SNDR respectively.</t>
   </si>
   <si>
@@ -1169,21 +1164,6 @@
     <t>This article presents a delta sigma modulator (DSM) analog to digital (ADC) that uses ring amplifiers as integrators to relax speed and efficiency bottlenecks in discrete-time (DT) oversampled ADCs. Its multi-bit quantizer is based on split source (SS) comparators, adding flexibility and power efficiency. The complete oversampling ADC is designed as a 3rd-order cascade of integrator with feed forward (CIFF) with a 4-bit quantizer, and it achieves a peak signal-to-noise and distortion ratio (SNDR) of 67 dB and DR of 70.0 dB with 47.5-MHz bandwidth when clocked at 950 MHz. This is the highest bandwidth reported to date among single-channel DT DSM ADCs and demonstrates a viable alternative to continuous-time (CT) DSM ADCs for wideband oversampling applications. With a power consumption of 4.7 mW from a 1-V supply, figure of merit (FoM) Schreier and Walden are 167.0 dB and 27.0 fJ/c.s, respectively, demonstrating efficient DT delta-sigma conversion with high bandwidth.</t>
   </si>
   <si>
-    <r>
-      <t>This work presents a discrete-time (DT) delta sigma modulator (DSM) ADC that uses ring amplifiers to relax critical speed and efficiency bottlenecks. The DSM is designed as a 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rd -order Cascade of Integrator with Feed Forward (CIFF) with a 4-bit quantizer, and it achieves a peak SNDR of 67dB and DR of 70.0dB with 47.5MHz bandwidth when clocked at 950MHz. This is the highest bandwidth reported to-date among single-channel DT DSM ADCs and demonstrates a viable alternative to continuous-time (CT) DSM ADCs for wideband oversampling applications. With a power consumption of 4.7mW from a 1V supply, FOMs and FOMw are 167.0dB and 27.0fJ/c.s. respectively, demonstrating efficient DT delta-sigma conversion with high bandwidth.</t>
-    </r>
-  </si>
-  <si>
     <t>This paper proposes a ring amplifier with a self-stabilization technique (SST) against PVT variation. It can significantly alleviate the risk of the instability issue, which is particularly problematic in the front-end design. This technique automatically adjusts the dead-zone voltage (VDZ) according to the output voltage ringing magnitude directly. With the technique, the ring amplifier can find a suitable dead-zone voltage with minimal accuracy degradation even in a wide PVT range without adding a complex control circuit or algorithm. This technique is applied on a ring amplifier with 10-bit SAR (Successive-Approximation) ADC, and both are implemented in the 40-nm CMOS process. According to the measurement results, 51.43 dB SNDR, 60.24 dB SFDR, and 8.25-bit at 500ksps are achieved while consuming 36μW.</t>
   </si>
   <si>
@@ -1235,9 +1215,6 @@
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Deep-Pipeline","performance":{"source":"measured","tech":"28","fs":"600e6","OSR":"1","SNDR_nyq":"58.7","SFDR_nyq":"72.4","P_nyq":"14.5e-3"}}</t>
   </si>
   <si>
-    <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"100e6","OSR":"1","SNDR_nyq":"72.6","SFDR_nyq":"86.5","P_nyq":"2.5e-3"}}</t>
-  </si>
-  <si>
     <t>{"class":"ADC","sub_class”":"Oversampling","sub_sub_class":"NS-SAR","performance":{"source":"measured","tech":"40","fs":"10e6","OSR":"8","SNDR_nyq":"83.8","SFDR_nyq":"","P_nyq":"107e-6","DR":"85.5"}}</t>
   </si>
   <si>
@@ -1271,23 +1248,614 @@
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"62.3","SFDR_nyq":"75.5","P_nyq":"3.3e-3"}}</t>
   </si>
   <si>
-    <t>{"class":"ADC","sub_class”":"Delta-Sigma","sub_sub_class":"DT Delta-Sigma","performance":{"source":"measured","tech":"28","fs":"950e6","OSR":"10","SNDR_nyq":"67","SFDR_nyq":"","P_nyq":"4.7e-3","DR":"70"}}</t>
-  </si>
-  <si>
-    <t>(2022 still incomplete)</t>
-  </si>
-  <si>
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"40","fs":"100e6","OSR":"1","SNDR_nyq":"73.2","SFDR_nyq":"90.4","P_nyq":"2.3e-3"}}</t>
   </si>
   <si>
     <t>{"class":"ADC","sub_class”":"Pipelined","sub_sub_class":"Pipelined-SAR","performance":{"source":"measured","tech":"16","fs":"500e6","OSR":"1","SNDR_nyq":"62.9","SFDR_nyq":"75.5","P_nyq":"2.8e-3"}}</t>
+  </si>
+  <si>
+    <t>Yamashita, Kaoru and Hershberg, Benjamin and Yoshioka, Kentaro and Ishikuro, Hiroki</t>
+  </si>
+  <si>
+    <t>Ring amplifiers (ringamps) have been shown to improve pipelined ADC performance by relaxing the traditional bottleneck imposed by power-hungry class-A residue amplifiers $[1,2]$. However, the operation of several high-performance ringamp structures is heavily dependent on device parameters and supply voltage, and thus, often sensitive to PVT variation. This creates challenges for applications in extreme environments, such as cryogenic quantum computing, space, and automotive. To overcome this issue, this work introduces a PVT-robust ringamp with pole-aware bias calibration and a biasenhancement technique. Furthermore, to deal with insufficient gain in advanced CMOS, we also propose a cascode Correlated Level Shifting (cascode-CLS) technique. These three techniques enable a prototype 12b 250MS/s pipelined ADC that achieves SNDR higher than $55 \mathrm{~dB}$ across $4.6 \mathrm{~K}$ to $400 \mathrm{~K}$ operating temperature range without requiring gain calibration. To the best of our knowledge, this work is the first pipelined ADC reported to operate at less than $40 \mathrm{~K}$.</t>
+  </si>
+  <si>
+    <t>10.1109/CICC57935.2023.10121320</t>
+  </si>
+  <si>
+    <t>A 4.6K to 400K Functional PVT-Robust Ringamp-Based 250MS/s 12b Pipelined ADC with Pole-Aware Bias Calibration</t>
+  </si>
+  <si>
+    <t>Cryogenic</t>
+  </si>
+  <si>
+    <t>Santana, Lucas Moura and Martens, Ewout and Lagos, Jorge and Wambacq, Piet and Craninckx, Jan</t>
+  </si>
+  <si>
+    <t>A 70MHz Bandwidth Time-Interleaved Noise-Shaping SAR Assisted Delta Sigma ADC with Digital Cross-Coupling in 28nm CMOS</t>
+  </si>
+  <si>
+    <t>10.1109/ESSCIRC59616.2023.10268759</t>
+  </si>
+  <si>
+    <t>This work presents a 2x Time-Interleaved (TI) Delta Sigma Modulator (DSM) Analog-to-Digital Converter (ADC) leveraging a 6b Noise-Coupled (NC) Noise-Shaping (NS) SAR quantizer. A novel technique to implement the noise coupling mid-quantization is presented to relax the timing bottleneck on a 2xTI NC NS SAR, having minimal impact on the achievable clock speed. The loop filter is implemented using power-efficient no-hold phase ringamps with an input capacitor reset pre-sampling to reduce kickback noise in the input network. The full ADC clocks at a sampling rate of 1. 4GS/s which is the highest among all discrete-time (DT) DSM ADCs and TI NS ADCs to date and achieves 67dB/72dBSNDR/SNR over a 70MHz bandwidth while consuming 32mW.</t>
+  </si>
+  <si>
+    <t>Zhang, Heng and He, Ben and Guo, Xuan and Wu, Danyu and Liu, Xinyu</t>
+  </si>
+  <si>
+    <t>A 1-GS/s 12-bit Single-Channel Pipelined ADC in 28-nm CMOS With Input-Split Fully Differential Ring Amplifier</t>
+  </si>
+  <si>
+    <t>This article proposed a deep-pipelined analog-to-digital converter (ADC) that utilizes an input-split fully differential ring amplifier (ringamp, RAMP). The implemented ringamp is optimized for speed, achieving a higher nondominant pole frequency, and exhibits excellent adaptability in low-voltage, deep-nanoscale advanced CMOS processes. To minimize nonoverlap time, a nonoverlapping optimized clock generator is employed, generating two-phase and nonoverlapping clocks with near 50% duty cycles for sampling and amplification in the multiplying digital-to-analog converters (MDACs). The ADC architecture comprises a high-linearity input buffer, ten MDACs, and a flash backend ADC. To enhance linearity, a dither signal is injected in the first three stages. Fabricated in a 28-nm CMOS process, the 1-GS/s 12-bit ADC based on the ringamp achieves a spurious-free dynamic range (SFDR) of 70.34 dB and a signal-to-noise-and-distortion ratio (SNDR) of 55.71 dB at Nyquist input, while consuming only 38.9 mW from a single 1-V supply. This translates to a Walden figure of merit (FoM) of 75 fJ/conversion step and a Schreier FoM of 157.2 dB, respectively.</t>
+  </si>
+  <si>
+    <t>10.1109/TVLSI.2023.3323568</t>
+  </si>
+  <si>
+    <t>TVLSI</t>
+  </si>
+  <si>
+    <t>A 4.6–400 K Functional Ringamp-Based 250 MS/s 12 b Pipelined ADC With PVT-Robust Unity-Gain-Frequency-Aware Bias Calibration</t>
+  </si>
+  <si>
+    <t>This article presents a process voltage temperature (PVT) -robust ring amplifier that enables a high speed pipelined analog-to-digital-converter (ADC) without gain calibration, operating across a temperature range of 4.6–400 K. To ensure the stability of the ringamp, given the large variation of MOSFET transconductance, threshold voltage, and drain resistance across temperature, we propose a unity-gain-frequency-aware bias calibration and a 1st-stage bias-enhancement technique. The unity-gain-frequency-aware bias calibration stabilizes the amplifier bandwidth by biasing the 3rd stage of the ringamp using a constant- $Gm$  circuit and then optimizing the overall phase margin by tuning the 1st and 2nd stages based on feedback from an amplifier output settling monitor. An additional bias-enhancement technique alleviates the issue of insufficient voltage headroom at cryogenic temperatures (CTs) in the fully differential first stage of the ringamp. This is achieved by separately ac-coupling the NMOS and PMOS of the 1st-stage inverter. Furthermore, to deal with insufficient gain in advanced CMOS process, a cascode correlated-level-shifting (CLS) technique is proposed. This enables gain-calibration-free operation while achieving higher speed than conventional CLS. A 12-bit 250 MS/s pipelined ADC prototype is fabricated with the proposed ringamp in 65 nm CMOS technology. It achieves a signal to noise and distortion ratio (SNDR) above 57.7 dB across the 4.6–400 K temperature range, and Walden figure-of-merit (FoM) of 154 fJ/conv.-step at 4.6 K while operating without any gain calibrations. To the best of our knowledge, the achieved functional temperature range is the widest ever reported for a pipelined ADC.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2023.3328385</t>
+  </si>
+  <si>
+    <t>Zhan, Mingtao and Jie, Lu and Tang, Xiyuan and Zhong, Yi and Sun, Nan</t>
+  </si>
+  <si>
+    <t>A 0.004-mm2 200-MS/s Pipelined SAR ADC With kT/C Noise Cancellation and Robust Ring-Amp</t>
+  </si>
+  <si>
+    <t>This article presents a compact 13-bit 200-MS/s pipelined successive-approximation register (SAR) analog-to-digital converter (ADC) with a robust current-biased ring amplifier (ring-amp) and kT/C noise cancellation. The proposed current-biasing scheme using split capacitors significantly enhances the PVT robustness of the ring-amp. With additional split capacitors used for current-biasing, the kT/C noise cancellation technique can be seamlessly implemented in this architecture. With kT/C noise cancellation, the input-referred thermal noise can break the input sampling kT/C noise limit. As a result, the input sampling capacitance can be greatly reduced. With only 128-fF single-end input sampling capacitance, the prototype ADC implemented in a 28-nm process achieves 67-dB SNDR with only 0.004-mm2 core area. The power consumption at 200 MS/s is 1.3 mW, yielding a Schreier figure of merit of 175.5 dB and a Walden figure of merit of 3.7 fJ/conversion-step.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2023.3344461</t>
+  </si>
+  <si>
+    <t>Ye, Siyuan and Shen, Linxiao and Gao, Jihang and Li, Jie and Chen, Zhuoyi and Xu, Xinhang and Cui, Jiajia and Zhang, Hao and Zhang, Xing and Ye, Le and Huang, Ru</t>
+  </si>
+  <si>
+    <t>9.1 A 2mW 70.7dB SNDR 200MS/s Pipelined-SAR ADC with Continuous-Time SAR-Assisted Detect-and-Skip and Open-then-Close Correlated Level Shifting</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC49657.2024.10454412</t>
+  </si>
+  <si>
+    <t>Cao, Yuefeng and Zhang, Minglei and Zhu, Yan and Martins, Rui P. and Chan, Chi-Hang</t>
+  </si>
+  <si>
+    <t>A Single-Channel 12-b 2-GS/s PVT-Robust Pipelined ADC With Sturdy Ring Amplifier and Time-Domain Quantizer</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3408468</t>
+  </si>
+  <si>
+    <t>Ring amplifier (RingAmp)-based multiplying digital-to-analog converters (MDACs) feature high energy efficiency and linearity; however, their process, supply voltage, and temperature (PVT)-sensitive transient responses require significant timing overhead, limiting the speed of the pipelined analog-to-digital converters (ADCs). This work introduces a sturdy RingAmp (SRingAmp), which stabilizes the gain, gain–bandwidth product (GBW), phase margin (PM), and transient response by building up compensatory coordination, achieving significant speed and PVT-robustness advantages over prior RingAmps. Furthermore, a time-domain ADC is utilized as the sub-quantizer with two techniques, including a common-mode shifting (CMS) scheme and a partial power-down (PD) operation for the voltage-to-time converter (VTC) and the time-to-digital converter (TDC), respectively. The former allows a near mid-supply common-mode input without degrading the linearity, and the latter improves the power efficiency. With these techniques, a single-channel 12-bit pipelined ADC achieves 2 GS/s in 28-nm CMOS with measured 60.4-dB SNDR and 75.8-dB SFDR at a Nyquist input, consuming 27 mW from a 1.0-V supply and yielding a Schreier figure of merit (FoM) of 166.1 dB.</t>
+  </si>
+  <si>
+    <t>A 12-bit 1.5-GS/s Single-Channel Pipelined SAR ADC With a Pipelined Residue Amplification Stage</t>
+  </si>
+  <si>
+    <t>Shen, Yi and Liu, Shubin and Cao, Yue and Han, Haolin and Liang, Hongzhi and Dong, Zhicheng and Li, Dengquan and Ding, Ruixue and Zhu, Zhangming</t>
+  </si>
+  <si>
+    <t>This article presents a 12-bit 1.5-GS/s single-channel pipelined successive approximation register (SAR) analog-to-digital converter (ADC). The ADC leverages a pipelined residue amplification (RA) stage scheme, early quantization technique, and fast differential ring amplifier (ringamp) to achieve high speed and high power efficiency simultaneously. The pipelined RA stage scheme allows the RA and SAR conversion to run in parallel for a fast pipelining operation and a relaxed residue amplifier’s bandwidth requirement, thus alleviating the speed bottleneck of the pipelined SAR ADCs. The early quantization technique reduces the timing budget of the SAR conversion phase, thereby further improving the ADC speed. The differential ringamp with a short settling time and low common-mode gain guarantees the high accuracy and high speed of the critical RA. Furthermore, a flexible digital-to-analog-converter (DAC) topology combining the scaling capacitor and bridge capacitor is employed to align the quantization range avoiding large overheads. The prototype ADC was fabricated in a 28-nm CMOS process and consumes 21.3 mW at 1.5 GS/s. The signal-to-noise-and-distortion-ratio (SNDR) and spurious-free dynamic range (SFDR) are 58.5 and 74.5 dB with a Nyquist input, respectively, achieving a Walden figure-of-merit (FoM) of 20.7 fJ/conversion step and a Schreier FoM of 164 dB.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3412090</t>
+  </si>
+  <si>
+    <t>A Single-Channel, 1-GS/s, 10.91-ENOB, 81-dB SFDR, 9.2-fJ/conv.-step, Ringamp-Based Pipelined ADC with Background Calibration in 16nm CMOS</t>
+  </si>
+  <si>
+    <t>Lagos, J. and Renukaswamy, P. and Markulic, N. and Martens, E. and Craninckx, J.</t>
+  </si>
+  <si>
+    <t>We present a single-channel ADC that exploits muti-bit pipelined stages based on ring amplification to simultaneously achieve high linearity, bandwidth, and power efficiency. A very-wide tuning range comparator is introduced in the stage quantizers, which not only enables multi-bit quantization but is also leveraged for the injection of dither to calibrate DAC mismatch and inter-stage gain in the background. Implemented in a 16nm FinFET process, it achieves 10.91 ENOB and 81 dB SFDR at 1 GS/s, consuming 17.8 mW from a 0.9 V supply, resulting in a Walden FoM of 9.2 fJ/conv.-step.</t>
+  </si>
+  <si>
+    <t>10.1109/VLSITechnologyandCir46783.2024.10631330</t>
+  </si>
+  <si>
+    <t>Chen, Chao and Yuan, Zhu and Cao, Peng and Xu, Jiawei and Hong, Zhiliang</t>
+  </si>
+  <si>
+    <t>A 71.5-dB SNDR 475-MS/s Ringamp-Based Pipelined SAR ADC with On-Chip Bit-Weight Calibration</t>
+  </si>
+  <si>
+    <t>This paper presents a 13-bit 475-MS/s single-channel pipelined SAR ADC, which utilizes a ring amplifier (ringamp) for residue amplification through an improved bias scheme and common-mode feedback (CMFB). Moreover, the ADC exploits an on-chip bit-weight calibration with signal-dependent pseudo-random noise (PN) injection and a window detector to correct the interstage gain error and DAC mismatch, requiring only 4096 PN-injected samples to calibrate the gain error in the background. As a result, this work achieves a peak SNDR of 71.5dB and consumes 9.93mW from a 1V supply. This corresponds to a state-of-the-art FoMs of 175.3dB and FoMw of 6.8fJ/conv-step.</t>
+  </si>
+  <si>
+    <t>10.1109/VLSITechnologyandCir46783.2024.10631448</t>
+  </si>
+  <si>
+    <t>A 3.32mW 300MS/s 13b Pipelined SAR ADC Using a Time-Assisted Ringamp with Dynamic Slew Rate and Low-Supply Bias</t>
+  </si>
+  <si>
+    <t>This paper presents a time-assisted ringamp topology that relaxes the tradeoff between speed and accuracy in conventional ringamps. In this topology, a time-domain voltage-to-time converter (VTC) enables high speed by boosting the slew rate of the ringamp during coarse open-loop amplification and releases the slew rate for high gain and stability during close-loop fine settling. The Proposed ringamp adopts a dynamic feedback Class-AB bias that needs a supply of only $V_{\mathrm{gs}, \min }+2 V_{\text {dsat }}$ for larger supply headroom; it also eliminates the level-shifting capacitors as in prior works to achieve higher area efficiency and lower parasitic capacitance. A two-stage pipelined SAR ADC in 40 nm CMOS equipped with the proposed techniques achieves a measured SNDR of 67.1 dB and a SFDR of 79.3 dB at $300 \mathrm{MS} / \mathrm{s}$, while consuming 3.32 mW in a 1.1 V supply.</t>
+  </si>
+  <si>
+    <t>10.1109/ESSERC62670.2024.10719555</t>
+  </si>
+  <si>
+    <t>Jiang, Rucheng and Yoo, Jerald</t>
+  </si>
+  <si>
+    <t>A Floating-Ring Hybrid Amplifier Insensitive to PVT and Common-mode Variation without CMFB for High-Speed ADCs</t>
+  </si>
+  <si>
+    <t>Wang, Yaning and Li, Zhenguo and Wang, Peng and Cheng, Yihang and Li, Fule and Hu, Yi and Hou, Jiali and Su, Meng and Li, Mengjiao</t>
+  </si>
+  <si>
+    <t>This paper presents a floating-ring hybrid amplifier (FRHA) insensitive to PVT and common-mode variation, in which a floating power supply is used for the third stage. In differential-mode, the transistors of third stage are forced into the subthreshold region, which improves the loop gain and quickly realizes the pole separation, reducing the times of the oscillation convergence. As for common-mode, a pair of small cross-coupled NMOS is added as the load of first stage, which sharply reduced the common-mode gain without affecting the differential-mode gain much. Moreover, the floating power supply provided by the capacitor has natural common-mode stability. To achieve PVT robustness, a PVT tracking circuit for charging the power supply capacitor is designed, which solves the early shutdown of the third stage caused by insufficient capacitor charge at fast process corner and reduces oscillation cycles due to insufficient phase margin at slow process corner. This FRHA has been applied to a 12-bit 200MS/s pipelined-SAR ADC as residue amplifier (RA) in 65nm CMOS process. The simulation result achieves 67.95dB SNDR at Nyquist frequency and 1.2Vpeak-peak input, yielding a Walden FoM of 5.57 fJ/con-step.</t>
+  </si>
+  <si>
+    <t>10.1109/ISCAS58744.2024.10558189</t>
+  </si>
+  <si>
+    <t>Ceroni, Alessia and Zanoletti, Gabriele and Bonfanti, Andrea and Samori, Carlo</t>
+  </si>
+  <si>
+    <t>A Highly Energy-Efficient FIA-based AZ-free Ring Amplifier for Pipeline-SAR ADCs</t>
+  </si>
+  <si>
+    <t>PRIME</t>
+  </si>
+  <si>
+    <t>10.1109/PRIME61930.2024.10559719</t>
+  </si>
+  <si>
+    <t>This paper presents an ultra-low-power differential Ring Amplifier (RA) that exploits Floating Inverter Amplifiers (FIAs) as building blocks to derive an autozeroing-free, area-and energy-efficient topology. The proposed solution is implemented in a 28-nm bulk CMOS technology with a 0.9-V supply voltage and is used as a residue amplifier for a 500-MS/s Pipeline Successive Approximation Register (SAR) analog-to-digital converter (ADC). Simulations show that the amplifier settles within 500 ps and achieves an input-referred noise of $\mathbf{169}\ \mu \mathbf{V}$ with a power consumption of only $\mathbf{190}\ \mu \mathbf{W}$. These numbers result in a Figure-of-Merit (FoM) of $10.9 nJ \cdot (\mu \mathbf{V})^{2}$, which favorably compares with the state-of-the-art.</t>
+  </si>
+  <si>
+    <t>High-Performance Floating Resistor-based Ring Amplifier for Switched Capacitor Circuits</t>
+  </si>
+  <si>
+    <t>Pundir, Manish and Singh, Bipul Kumar and Kamble, Ninad Bandu and Shah, Ambika Prasad</t>
+  </si>
+  <si>
+    <t>This paper presents a modified bias-enhanced with a floating resistor ring amplifier (FR-RAMP) circuit. The design uses two transistor-based floating resistor that are connected at the first stage to improve the settling time and cross-connections to maintain the high overdrive voltage that is responsible for the high dead-zone voltage. All the circuit simulations are performed with Cadence Virtuoso using industry-standard 45nm CMOS technology. The settling time of the FR-RAMP is only 0.86ns as compared to 7.51ns and 1.12ns for the conventional self-biased ring amplifier (CSB-RAMP) and bias-enhanced ring amplifier (BE-RAMP), respectively. The dead-zone voltage for the proposed FR-RAMP is also improved by 5.24% as compared to CSB-RAMP. Apart from faster settling time and improved dead-zone voltage, the circuit also shows strong immunity to PVT variations making it robust and ideal for high-performance applications.</t>
+  </si>
+  <si>
+    <t>10.1109/NorCAS58970.2023.10305489</t>
+  </si>
+  <si>
+    <t>NorCAS</t>
+  </si>
+  <si>
+    <t>Song, Seungheun and Kang, Taewook and Lee, Seungjong and Flynn, Michael P.</t>
+  </si>
+  <si>
+    <t>A 150-MS/s Fully Dynamic SAR-Assisted Pipeline ADC Using a Floating Ring Amplifier and Gain-Enhancing Miller Negative-C</t>
+  </si>
+  <si>
+    <t>A 150-MS/s fully dynamic SAR-assisted pipeline ADC employs a dynamic, bias-free, floating ring amplifier. A Miller negative capacitance scheme overcomes the limited gain of the residue amplifier. Miller negative capacitance requires no extra circuitry and only needs a small capacitance. The measured SNDR and SFDR of the 28-nm CMOS prototype ADC with a 1 V supply are 67.9 dB and 84.3 dB, respectively. The ADC consumes 1.72 mW resulting in a Walden and a Schreier SNDR FoM of 5.7 fJ/conversion-step and 173 dB, respectively.</t>
+  </si>
+  <si>
+    <t>10.23919/VLSITechnologyandCir57934.2023.10185377</t>
+  </si>
+  <si>
+    <t>Zhan, Mingtao and Jie, Lu and Zhong, Yi and Sun, Nan</t>
+  </si>
+  <si>
+    <t>A 10-mW 10-ENoB 1-GS/s Ring-Amp-Based Pipelined TI-SAR ADC With Split MDAC and Switched Reference Decoupling Capacitor</t>
+  </si>
+  <si>
+    <t>This article presents a 12-bit 1-GS/s ring-amp-based analog-to-digital converter (ADC) with a pipelined and time-interleaved successive approximation register (TI-SAR) hybrid architecture. This architecture utilizes backend time-interleaving for power and design complexity reduction while eliminating the sampling time skew. A ring amplifier (ring-amp) is used in this architecture to significantly reduce the power of residue amplification by about ten times over a prior work. A high-speed PVT-robust ring-amp with split input by splitting the multiplying DAC (MDAC) is proposed to guarantee the performance of the ring-amp under low supply voltage. To improve the power supply rejection ratio (PSRR) of the reference buffer and lower the reference noise without degrading the reference settling speed, a switched reference decoupling capacitor (de-cap) technique is proposed. Flash ADC and backend successive approximation register (SAR) ADCs are also optimized to meet the challenging power efficiency requirement. The ADC implemented in a 28-nm CMOS process achieves 62.5-dB SNDR for Nyquist input. The total power including the reference buffer is 10.6 mW, yielding a Schreier figure of merit ( $\text {FoM}_{S}$ ) of 169.2 dB.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2023.3307435</t>
+  </si>
+  <si>
+    <t>17.5 A 10mW 10-ENOB 1GS/s Ring-Amp-Based Pipelined TI-SAR ADC with Split MDAC and Switched Reference Decoupling Capacitor</t>
+  </si>
+  <si>
+    <t>Pipelined TI-SAR ADC</t>
+  </si>
+  <si>
+    <t>Zhan, Mingtao and Jie, Lu and Sun, Nan</t>
+  </si>
+  <si>
+    <t>Next-generation wireless standards (e.g., WiFi-7) advancing towards wider bandwidth and higher order modulation require ADCs with GHz sampling rates and over 12b resolution. Although conventional pipelined ADCs can satisfy the speed and resolution specifications, their power is usually too high for handset applications, for which $\leq 10\text{mW}$ per channel is desired. Alternatively, time-interleaved (TI) ADCs achieve low power by harnessing efficient low-speed SAR sub-ADCs. However, background timing-skew calibrations bring considerable overhead and place limitations on the input signal. The pipeline/TI-SAR hybrid architecture places the interleaved SAR at the $2^{\text{nd}}$ pipeline stage to avoid the timing skew problem [1]. As the SAR consumes low power and can run asynchronously, this greatly reduces the pipeline backend power and simplifies the clock distribution. However, the residue amplifier is still a power efficiency bottleneck as in a conventional pipeline. In [1], the architecture advantages are shaded by its power-hungry telescopic OTA. This work proposes a ring amplifier with split MDAC to boost the efficiency of the pipelined TI-SAR architecture, which enables a 1GS/s 10-ENOB ADC which consumes only 6.9mW. For high-speed ADCs, the power and area overhead of the reference buffer is also a critical issue. This work proposes a reference decoupling capacitor (de-cap) switching technique that reduces the reference buffer power to only 3.7mW, and the total de-cap size to only 44pF, while maintaining excellent high-frequency performance. Overall, this work achieves $\text{FoM}_{\mathrm{s}}$ of 171.1 and 169.2dB with or without the reference buffer, which outperforms all reported works with $\mathrm{f}_{\mathrm{s}} &gt; 600\text{MS}/\mathrm{s}$.</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC42615.2023.10067475</t>
+  </si>
+  <si>
+    <t>Cao, Yuefeng and Zhang, Minglei and Zhu, Yan and Chan, Chi-Hang and Martins, R. P.</t>
+  </si>
+  <si>
+    <t>10.3 A Single-Channel 12b 2GS/s PVT-Robust Pipelined ADC with Critically Damped Ring Amplifier and Time-Domain Quantizer</t>
+  </si>
+  <si>
+    <t>High-speed pipelined ADCs rely on fast and accurate residue amplification which often necessitates calibration, thus suffering from potential convergence issues, extra area/power overhead, and higher test costs. The state-of-the-art open-loop (OL) residue amplifiers (RAs) accommodate short amplification time [1] with decent calibration-free gain variation over PVT [2], reaching higher performance is challenging due to the absence of closed loop (CL) assistance. A ring-amp in a CL topology is a promising alternative, showing a $2 \times$ amplification within 420ps in a 16nm process [3]. Its ring-able nature, however, imposes a precise dead-zone (DZ) control for optimum performance over PVT in high-speed applications, which in turn loses the calibration-free characteristic common in CL architectures. This work presents a calibration-free critically damped ring amplifier (CDRA) exploited in a time-domain (TD) ADC assisted pipelined ADC. The CDRAs retain $4\times/8\times$ PVT-stable amplification within 130ps, facilitating a single-channel 12b 2GS/s ADC in 28nm CMOS with 60.4dB SNDR at Nyquist.</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC42615.2023.10067687</t>
+  </si>
+  <si>
+    <t>A 12-GS/s 12-b 4× Time-Interleaved ADC Using Input-Independent Timing Skew Calibration With Global Dither Injection and Linearized Input Buffer</t>
+  </si>
+  <si>
+    <t>This article presents a 12-GS/s 12-bit  $4{\times }$  time-interleaved (TI) pipelined analog-to-digital converter (ADC), which utilizes a global dither injection (GDI) scheme to facilitate an input-independent background timing skew calibration. The GDI scheme adds dithers into the input signal of the push-pull source follower (PP-SF) in the input buffer (IBF), avoiding undetectable skews in conventional local dither injection (LDI) schemes. Meanwhile, the perturbations between the input signal and dither are mitigated by cross-coupled capacitive networks. This work also significantly improves the efficiency of the interleaver using the following techniques: first, the PP-SF-based IBF is linearized by a self-adaptive current compensation (SACC), achieving high linearity under 1.2-V low supply voltage headroom. Second, the speed of the 12-bit channel is lifted to 3 GS/s in 28-nm CMOS using a sturdy ring amplifier (SRingAmp) with feedforward (FF), which enables a nonhierarchical interleaver with a small interleaving factor of  $4{\times }$ . The time-interleaved ADC attains a 54.1-dB SNDR and a 66.0-dB SFDR under a near-Nyquist input with 179.8-mW power consumption, translating into a Walden figure of merit (FoM) of 36.2 fJ/conversion step and a Schreier FoM of 159.3 dB.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3482567</t>
+  </si>
+  <si>
+    <t>Cao, Yuefeng and Zhang, Minglei and Zhu, Yan and Martins, R. P. and Chan, Chi-Hang</t>
+  </si>
+  <si>
+    <t>22.1 A 12GS/s 12b 4× Time-Interleaved Pipelined ADC with Comprehensive Calibration of TI Errors and Linearized Input Buffer</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC49657.2024.10454350</t>
+  </si>
+  <si>
+    <t>Direct RF sampling relieves the analog front-end design and delivers high system flexibility. In $\gt10 \mathrm{GS} / \mathrm{s}\gt10 \mathrm{~b}$ ADCs, time-interleaving (TI) is inescapable [1–3], while the number of channels and their front-end components should be minimized to achieve low power and adequate linearity for a wideband input. Moreover, the complexity and hardware cost associated with background calibrations of TI impairments should be minimized. However, prior calibrations face challenges to be comprehensive, which either confine the applicable input [1–3] or the accuracy [4, 5]. This work presents a global dither-injection-facilitated comprehensive calibration of TI errors (CCTI), which features an inherent input-independent characteristic like the analog calibration of [5], but more comprehensively corrects all sources of skew. The CCTI is instantiated in a 12GS/s 12b ADC in 28nm, which is only aggregated by 4 TI channels (CHs), enabling a single input buffer (IBF) with direct sampling TI front-end for high energy efficiency. The IBF works under a 1.2V supply voltage headroom and is linearized by a self-adaptive current-compensation cell (SACC-cell), accommodating $\gt65 \mathrm{~dB}$ SFDR over the Nyquist bandwidth. The ADC dissipates 179.8mW power and measures 54.1dB Nyquist SNDR, yielding 36.2fJ/conv.-step $\mathrm{FoM}_{\mathrm{w}}$ and 159.3dB $\mathrm{FoM}_{\mathrm{s}}$.</t>
+  </si>
+  <si>
+    <t>Lin, Yajun and Liu, Xun and Leung, Ka Nang</t>
+  </si>
+  <si>
+    <t>A Bandwidth-Boosted Hybrid LDO With Spike-To-Time Converter for Near-Threshold Regulation</t>
+  </si>
+  <si>
+    <t>A fully integrated output-capacitorless hybrid low-dropout regulator (HLDO) with enhanced transient response and tight regulation, able to operate at ultralow supply, is proposed in this article. The proposed HLDO contains a dual-control-loop structure to separate the proportional and derivative controls. A spike-to-time converter is used in the derivative control loop to convert the output transient spikes into digital signals and then activates the digital control loop to adjust the output current rapidly to speed up the recovery of output. In the proportional control loop, an analog controller based on the ring-amplifier structure with the proposed compensation scheme utilizes a hybrid algorithm to achieve a rippleless output. The proposed HLDO is fabricated in a 65-nm CMOS process with a regular threshold voltage of about 0.45 V. The chip area is 0.0302 mm2. The total on-chip capacitance is 4.4 pF. The minimum supply voltage is as low as 0.5 V with a minimum dropout voltage of 20 mV. At 1-V supply, the measured undershoot at the output is 142 mV and its settling time is 17 ns when the output current increases from 100 μA to 300 mA in 5 ns. The figure-of-merit is 2.05 fs.</t>
+  </si>
+  <si>
+    <t>10.1109/TPEL.2023.3347254</t>
+  </si>
+  <si>
+    <t>Li, Manxin and Lee, Calvin Yoji and Venkatachala, Praveen Kumar and ElShater, Ahmed and Miyahara, Yuichi and Sobue, Kazuki and Tomioka, Koji and Moon, Un-Ku</t>
+  </si>
+  <si>
+    <t>A Rail-to-Rail 12 MS/s 91.3 dB SNDR 94.1 dB DR Two-Step SAR ADC With Integrated Input Buffer Using Predictive Level-Shifting</t>
+  </si>
+  <si>
+    <t>Two-Step</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2023.3308121</t>
+  </si>
+  <si>
+    <t>Input buffers can be used to reduce the input load of high-resolution discrete-time (DT) Nyquist analog-to-digital converters (ADCs), which can be challenging to drive, particularly at high sampling rates, because of the large input sampling capacitance needed to reduce thermal noise. An input driving technique called predictive level-shifting is proposed to drive rail-to-rail signal swing without increasing the buffer supply rail for high linearity. This article demonstrates an easy-to-drive two-step successive approximation register (SAR) ADC with integrated input buffer, achieving 91.3 dB peak signal-to-noise-and-distortion ratio (SNDR) and 94.1 dB dynamic range (DR) with 6.6 V peak-to-peak differential signal swing and 4 MHz input frequency at 12 MS/s with 30.41 mW power consumption, demonstrating the best performance among the published literature.</t>
+  </si>
+  <si>
+    <t>High Voltage</t>
+  </si>
+  <si>
+    <t>Li, Manxin and Lee, Calvin Yoji and ElShater, Ahmed and Miyahara, Yuichi and Sobue, Kazuki and Tomioka, Koji and Moon, Un-Ku</t>
+  </si>
+  <si>
+    <t>10.4 A Rail-to-Rail 12MS 91.3dB SNDR 94.1dB DR Two-Step SAR ADC with Integrated Input Buffer Using Predictive Level-Shifting</t>
+  </si>
+  <si>
+    <t>Recent years have witnessed the development of high-resolution ADCs &gt;14b utilizing the power-efficient SAR topology at medium speed (1-20MSps) [1–4]. However, high-resolution discrete-time Nyquist ADCs are difficult to drive, especially at high sampling frequencies, due to their large input sampling capacitance required to suppress thermal noise. Standalone general-use buffers are costly since a wide supply-range is needed to maintain linearity across signal swing resulting in low power-efficiency. Integrated driving techniques such as [5] have also been explored although the use of the embedded buffer inside the SAR loop requires each SAR decision trial to resettle through the bandwidth of the buffer, while also requiring a separate larger power supply (2.5V) to accommodate the 1.8Vpp signal swing. This work presents the predictive level-shifting integrated driving technique, implemented in a two-step SAR ADC with 3.3V/1.8V supplies, capable of processing rail-to-rail 6.6Vppd input, resulting in a peak SNDR of 91.3dB with a 4MHz input signal at 12MS/s.</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC42615.2023.10067703</t>
+  </si>
+  <si>
+    <t>Lyu, Yanjin and Hu, Yuanqi</t>
+  </si>
+  <si>
+    <t>A 2.30 NEF Split-Steering Amplifier for Switched-Capacitor Circuits With  $-$ 14.2-dB CM-CM Gain and 100-V/ $\mu$ s Slew Rate</t>
+  </si>
+  <si>
+    <t>This article presents three techniques to improve the split-steering amplifier’s (SSA) performance and robustness. At the system level, differential-mode charge neutralization (DMCN) is introduced first to reset the circuit with minimum burden. Second, a DMCN-compatible common-mode feedforward (CMFF) strategy is introduced to reduce the impact of common-mode (CM) disturbance without introducing extra noise or sacrificing the bandwidth. The above two techniques are universal and can be applied in other pseudo-differential (PD) amplifier architectures. As for circuit implementation, two ring amplifiers (RAs) with different dead zones (DZs) are paralleled with the SSA to improve the slew rate (SR) of the overall amplifier. Dynamic bias adjustment is used to increase the response speed of the RAs and ensure that they will not be activated after slewing, which is critical to keep the overall amplifier low noise. The measured results demonstrate a  $-$ 14.2-dB CM-CM gain and 11.7 times SR boosting. The measured noise efficiency factor (NEF) is 2.30, and  $\overline{V_{n}^2} \cdot I_{\rm supply}$  is 1.49 times overperforming previous works.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3440266</t>
+  </si>
+  <si>
+    <t>Zhang, Xiongbo and Wu, Qingsen and Wang, Yuan and Li, Lin and Ye, Zuochang</t>
+  </si>
+  <si>
+    <t>ASID</t>
+  </si>
+  <si>
+    <t>Design Optimization</t>
+  </si>
+  <si>
+    <t>Technology Generic Delta-Sigma ADC Design with gm/ID Methodology</t>
+  </si>
+  <si>
+    <t>In contrast to traditional Operational Transconductance Amplifiers (OTAs), ring amplifiers present notable advantages in terms of superior performance and ease of scaling, rendering it a favored choice in analog circuit design. However, it is hard to use traditional hand-calculation in determining its optimal sizing, posing a substantial challenge for designers in sizing the ring amplifier. To address these challenges, this paper introduces a systematic gm/ID-based design method for the self-biased ring amplifier, which is automated within the analog design tool TED. The feasibility of the design procedure is verified through simulations using 65nm and 180nm technologies. Furthermore, the proposed design methodology is applied to a practical Delta-Sigma Modulator (DSM) design, resulting in over 100dB SNDR and 100kHz bandwidth.</t>
+  </si>
+  <si>
+    <t>10.1109/ASID60355.2023.10426347</t>
+  </si>
+  <si>
+    <t>Hsieh, Sung-En and Wu, Tzu-Chien and Hou, Chun-Chih</t>
+  </si>
+  <si>
+    <t>Good FoM with simple OTA</t>
+  </si>
+  <si>
+    <t>A 1.8GHz 12b Pre-Sampling Pipelined ADC with Reference Buffer and OP Power Relaxations</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC42615.2023.10067258</t>
+  </si>
+  <si>
+    <t>Hu, Hang and Vesely, Vladimir and Moon, Un-Ku</t>
+  </si>
+  <si>
+    <t>This paper demonstrates a proposed architecture of multi-stage noise-shaping (MASH) structure with noise shaping successive-approximation (NSSAR) ADC. The proposed intrinsic stable $4^{\mathrm{t}\mathrm{h}}$ order MASH NSSAR ADC can not only take advantage of sharp noise shaping effect but also gain benefits from hardware reuse. With ultra-low oversampling ratio (OSR) the MASH NSSAR is realized in Intel 22nm FinFET process with 0. 9V supply. The noise leakage introduced by the analog and digital filter mismatch will be analyzed and indicates no calibration needed in the proposed MASH under reasonable mismatch range. A PVT stable ring amplifier that can achieve high-speed settling is also proposed in this article. With 100MHz bandwidth (OSR=3) and 50MHz (OSR=6), the topology can achieve 78dB and 85dB SNDR respectively.</t>
+  </si>
+  <si>
+    <t>A 12b 1.5GS/s Single-Channel Pipelined SAR ADC with a Pipelined Residue Amplification Stage</t>
+  </si>
+  <si>
+    <t>10.1109/CICC57935.2023.10121270</t>
+  </si>
+  <si>
+    <t>Pipelined SAR ADCs have become popular due to their excellent speed, resolution, and power efficiency. In advanced processes, the single-channel pipelined SAR ADC has gone beyond 1GS/s with $\geq$10b resolution [1–2]. The key operation in a pipelined SAR is the residue amplification (RA) which realizes residue transfer and provides interstage gain, but it also constitutes the speed bottleneck. Fig.1 (top) depicts the typical time allocation of the three-stage pipelined SAR architecture that is widely adopted to achieve both high resolution and speed. The current and next stages both need to participate in the current-stage residue amplification, consuming a significant timing budget for each stage. A high-bandwidth residue amplifier can reduce its amplification time, but it is power-hungry especially for the critical lst-stage residue amplifier that requires both high linearity and gain. Removing the time-consuming residue amplification and using passive residue transfer can tackle this bottleneck [3]. However, the lack of interstage gain increases the noise and linearity requirement for the succeeding stages, thereby limiting the ADC accuracy. In this work, we present a new pipelined RA stage scheme that allows the RA to run in parallel with the SAR conversions, thus breaking the speed bottleneck. To achieve both high bandwidth and power efficiency, we use a fast fully differential ring amplifier and a high-speed open-loop amplifier to implement the critical $1^{\mathrm{s}\mathrm{t}}-$stage and relaxed $2^{\mathrm{n}\mathrm{d}}-$stage RAs, respectively. The 12b single-channel prototype operates at 1. 5GS/s and achieves 58. 5dB SNDR with a Nyquist input while consuming 21.3mW.</t>
+  </si>
+  <si>
+    <t>Xiang, Yuguo and Zhou, Dayan and Song, Minjia and Zhai, Danfeng and Lan, Jingchao and Ren, Junyan and Ye, Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TVLSI</t>
+  </si>
+  <si>
+    <t>A Comprehensive Digital Calibration for Pipelined ADCs Using Cascaded Nonlinearity Correction</t>
+  </si>
+  <si>
+    <t>This brief presents a digital calibration for pipelined analog-to-digital converters (ADCs) utilizing the cascaded nonlinearity correction (CNC) method. By cascading three correction layers for compensating nonlinearities in different parts of pipelined ADC, it comprehensively calibrates distortion in both ADC front end and back end with a low hardware cost. In addition, this work employs a discriminative fine-tuning least-mean-square (DFT-LMS) algorithm with varying step sizes for different layers, thereby improving both the convergence speed and the accuracy. An 800-MS/s, 12-bit ring amplifier-based pipelined ADC is presented to verify the proposed calibration technique. With calibration, the SFDR has a 26.7-dB improvement at low frequency and 23.6-dB improvement at Nyquist frequency, resulting in over 6-dB improvement compared with prior-art calibration techniques. The calibration algorithm has been verified on a TSMC 28-nm CMOS process. The experimental results show that the proposed ADC calibrator has an area of 6592  $\mu$ m $^2$  and consumes 5.31 mW at 800-MHz clock rate.</t>
+  </si>
+  <si>
+    <t>10.1109/TVLSI.2024.3496669</t>
+  </si>
+  <si>
+    <t>Calibration focus</t>
+  </si>
+  <si>
+    <t>Kwon, Yigi and Lee, Sangwoo and Lee, Changuk and Yoon, Hyunchul and Min, Byounghan and Chae, Youngcheol</t>
+  </si>
+  <si>
+    <t>An 11bit 360MS/s Pipelined SAR ADC with Dynamic Negative-C Assisted Residue Amplifier</t>
+  </si>
+  <si>
+    <t>Pipelined SAR ADCs are widely used for moderate-to-high resolution applications. In this architecture, a residue amplifier plays a key role in speed and linearity, so it is inevitable that the amplifier consumes a large amount of power to achieve the target performance. Several amplifier topologies such as Gm-based amplifier, ring amplifier, and floating inverter amplifier (FIA) [1]–[3] have been developed to improve energy efficiency and represent a successful alternative to conventional OTAs. However, achieving high bandwidth while maintaining good energy efficiency of ADCs is still very challenging.</t>
+  </si>
+  <si>
+    <t>10.1109/A-SSCC58667.2023.10347949</t>
+  </si>
+  <si>
+    <t>Xu, Qiuyan and Lin, Chung-Ching and Wadaskar, Aditya and Hu, Huan and Cabric, Danijela and Gupta, Subhanshu</t>
+  </si>
+  <si>
+    <t>A 10ns Delay Range 1.5GHz BW True-Time-Delay Array-Based Passive-Active Signal Combiner with Negative-Cap Stabilized RAMP for Fast Precise Localization</t>
+  </si>
+  <si>
+    <t>Maximizing gain in beamforming arrays for emerging communications-on-the-move applications is key in highly resilient networks. Recent studies have demonstrated the rainbow beamtraining method as an effective solution for spatio-spectral mapping in analog/hybrid arrays but require large delay-bandwidth products. In this work, a proof-of-concept 2-channel 1.5GHz bandwidth 10ns maximum delay spatial signal processor is proposed. The angle-of-arrival estimation error is significantly reduced to ±1.5° compared to prior implementations with a smaller delay range. Multi-stage buffer-less switched-capacitor array enables large delay-bandwidth product of 15. A passive-active amplifier-based combination scheme supports the wideband operation minimizing power and distortion. A negative-capacitance compensated ring-amplifier with stabilization is proposed as part of the wideband signal combiner. The 2-channel system consumes 37.3mW/channel and 0.45mm2 in 65nm CMOS.</t>
+  </si>
+  <si>
+    <t>10.1109/RFIC61187.2024.10600032</t>
+  </si>
+  <si>
+    <t>RFIC</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Miyauchi, Ryoichi and Furusawa, Taketo and Hirano, Ryota and Hyogo, Akira</t>
+  </si>
+  <si>
+    <t>The Fully Differential Ring Amplifier with Wide Output Voltage Range Using Correlated Level Shifting Technique for The Pipelined ADCs</t>
+  </si>
+  <si>
+    <t>This paper describes the fully differential ring amplifier with wide output voltage range using correlated level shifting for the pipelined analog to digital converts. In the fine process, the problem of ring amplifier is low dc gain and narrow output voltage range. To overcome these problems, we proposed the novel ring amplifier using cascode circuit and correlated level shifting. From the simulation results, it is confirmed that the proposed circuit improves the gain and output voltage range compared to conventional circuits. Details are given in the paper.</t>
+  </si>
+  <si>
+    <t>10.1109/ITC-CSCC62988.2024.10628273</t>
+  </si>
+  <si>
+    <t>ITC-CSCC</t>
+  </si>
+  <si>
+    <t>An Improved MOS Self-Biased Ring Amplifier and Modified Auto-Zeroing Scheme</t>
+  </si>
+  <si>
+    <t>The self-biased ring amplifier (SBRA) is characterized by high power efficiency without the need for external bias and good stability when process, supply voltage, and temperature (PVT) variations are considered. This brief presents an improved SBRA structure implemented by full MOS devices. A cross-coupled pMOS and nMOS pair is used for MOS self-biasing to embed a dead-zone voltage, which reduces the settling time of output. In addition, a modified auto-zeroing scheme is proposed in this brief. A switch-controlled path is introduced in the circuit to improve the stability and linearity, and the load capacitor can be eliminated. The proposed ring amplifier and auto-zeroing scheme is used in a sample-and-hold circuit and has simulated SNR of 68.98 dB for a Nyquist frequency input sampled at 200 MS/s with a 65-nm technology.</t>
+  </si>
+  <si>
+    <t>10.1109/TVLSI.2023.3242821</t>
+  </si>
+  <si>
+    <t>Chen, Kexu and Li, Di and Chen, Dongdong and Chai, Changchun</t>
+  </si>
+  <si>
+    <t>Zhu, Zhangming and Ye, Dongxian and Li, Dengquan and Zhao, Xin and Zhou, Zecheng and Ding, Ruixue</t>
+  </si>
+  <si>
+    <t>A 13b 280MS/s Partial-Interleaving Pipelined-SAR ADC with Active Bias-Enhanced Ring Amplifier and Background Calibration</t>
+  </si>
+  <si>
+    <t>In this paper, a compact 13b 280MS/s partial-interleaving (PI) pipelined-SAR ADC with inter-stage ring amplifier sharing is presented, which improves the conversion speed while maintaining low power consumption. To improve the settling speed, an active bias-enhanced ring amplifier is proposed. A background calibration is employed for gain error and timing skew in the first pipeline stage. The prototype ADC achieves 59.5 dB SNDR and 70.7 dB SFDR with Nyquist input frequency. Consuming 9.6 mW at 1.2 V supply, the Walden FoM and Schreier FoM are $44.4 \mathrm{fJ} /$ conv.-step and 161.1 dB, respectively.</t>
+  </si>
+  <si>
+    <t>10.1109/ESSERC62670.2024.10719402</t>
+  </si>
+  <si>
+    <t>Singh, Bipul Kumar and Pundir, Manish and Shah, Ambika Prasad</t>
+  </si>
+  <si>
+    <t>Current Mirror-based High-Performance Ring Amplifier for Switched Capacitor Circuits</t>
+  </si>
+  <si>
+    <t>ICECS</t>
+  </si>
+  <si>
+    <t>Ring Amplifiers are the better alternatives to traditional OTAs in a Switched capacitor and other applications because of their ability to achieve efficient amplification, rail to rail output swing in scaled environments. In this paper, an improved self-biased current mirror resistor-based ring amplifier (CMR-RAMP) is presented. The design consists of four transistors that are connected at the second stage to improve settling time as well as dead zone voltage. The implementation and simulations of designs are performed with Cadence Virtuoso using 45nm CMOS technology at $V_{dd}=1V$ and 27°C of operating temperature. The settling time and dead zone voltage achieved by the CMR-RAMP is 3.3ns and 988.1mV which is $0.49\times$ and $1.21\times$ as compared to the settling time and dead zone voltage of a conventional self-biased ring amplifier (CSB-RAMP), respectively. Apart from faster settling time and improved dead-zone voltage, the circuit also shows strong immunity to PVT variations making it suitable for robust and high-performance switched capacitor circuits.</t>
+  </si>
+  <si>
+    <t>10.1109/ICECS58634.2023.10382783</t>
+  </si>
+  <si>
+    <t>Li, Qidi and Xir, Youze and Zhang, Bing and Wang, Zirui and Geng, Li</t>
+  </si>
+  <si>
+    <t>A 12bit 160MS/s Pipelined SAR ADC with a MOS Self-Biased Cascoded Ring Amplifier</t>
+  </si>
+  <si>
+    <t>In this design, a new structure of ring amplifier (RA) is proposed to meet high-speed applications, which uses low threshold voltage transistors to increase the charge rate for capacitors. The stability is ensured by increasing the dead-zone voltage using series-connected transistors. In this design, it is utilized as an inter-stage amplifier in a 160 MS/s, 12 bits pipelined successive approximation (pipeline SAR) analog-to-digital converter (ADC). The pipeline SAR ADC is designed with a 55 nm CMOS process and occupies an overall chip area of 500 × 170 µm2. Without calibration, the dynamic performance of ADC achieves 58.56 dB for SNDR and 69.14 dB for SFDR.</t>
+  </si>
+  <si>
+    <t>10.1109/ICTA60488.2023.10364249</t>
+  </si>
+  <si>
+    <t>ICTA</t>
+  </si>
+  <si>
+    <t>Tang, Zhiyuan and Chen, Gong and Liu, Qingqing and Zhang, Jie and Yang, Wenzhao</t>
+  </si>
+  <si>
+    <t>Analog Triggered Asynchronous Clocking Technique Based on the Ring Amplifier in Pipeline ADC</t>
+  </si>
+  <si>
+    <t>10.1109/ICCC56324.2022.10065645</t>
+  </si>
+  <si>
+    <t>A design technique for the analog triggered asynchronous clocking control technique for the pipeline ADC is presented, which is convenient for the realization of highly integrated ADCs. The analog trigger technique is implemented with dynamic-power residue amplifiers such as ring amplifiers (RAMPs) inside ADC to generate the ready signal, so the asynchronous processing is realized, which solves the design problem of establishing a high-frequency clock inside the highly integrated ADCs and completes the low-power designs. Simulation results of the adopted fully-differential RAMP using 130nm CMOS process models, supply of 1.2V, and clock frequency of 200MHz. Compared with the ready signal generated by the dynamic comparator in the SAR ADC, the results show that the duty cycle generated by the RAMP is 50%, and the setting up time is 114.1ps, which is more suitable for high-speed design.</t>
+  </si>
+  <si>
+    <t>Clocking</t>
+  </si>
+  <si>
+    <t>Lim, Yong and Lee, Jaehoon and Lee, Jongmi and Lim, Kwangmin and Oh, Seunghyun and Lee, Jongwoo and Kwak, Sung-Ung</t>
+  </si>
+  <si>
+    <t>9.2 A 2.08mW 64.4dB SNDR 400MS/s 12b Pipelined-SAR ADC using Mismatch and PVT Variation Tolerant Dynamically Biased Ring Amplifier in 8nm</t>
+  </si>
+  <si>
+    <t>Ring amplifiers [1–9] are promising energy-efficient alternatives to OTAs for switched-capacitor residue amplifiers. A ring amplifier is essentially a cascaded multi-stage inverter-based amplifier that is stabilized by a dominant pole at the last stage output with sub-threshold biasing. Although ring amplifiers offer slew-based charging, wide output swing, and high gain, the last stage biasing is still problematic considering mismatch and PVT variation. The self-biased ring amplifier [1] (Fig. 9.2.1 (a)) biases the last stage with a resistor placed in the $2^{\text {nd }}$-stage. While this IR-drop-based biasing effectively tracks first-order PVT variation and demonstrates a reasonable tolerance to VT variation [2], covering a wide range of variations with a fixed resistance is challenging due to the nonlinear relationship between $\left(V_{G S}-V_{T H}\right)$ and $I_{D S}$. The fixed resistor is replaced with a CMOS resistor [3–6] (Fig. 9.2.1 (b)) to provide flexibility in the last stage biasing using bias voltages $V_{B H}$ and $V_{B L}$. However, generating the optimum bias voltages without external tuning requires complex off-chip background digital calibration with ring amplifier behavior monitoring circuits $[4,5]$ or dither-injection-based histogram analysis [6]. The conventional class-AB amplifier bias circuit is adopted in [7, 8] (Fig. 9.2.1 (c)) for the optimum bias voltage generation without calibration. In addition, the $2^{\text {nd }}$-stages are also biased using the current mirrors with AC-coupled capacitors. Although this current mirror-based biasing offers stable performance across PVT variation, mismatch remains a concern. Mismatch is particularly challenging for energy efficient ring amplifiers because, unlike conventional class-AB amplifiers, it is desirable to design the last two stages with small-sized transistors for wide internal node bandwidth with low quiescent current by reducing the capacitive loading of the preceding stages. We introduce a dynamically biased ring amplifier to provide mismatch and PVT variation tolerance, and apply it in a 12b $400 \mathrm{MS} / \mathrm{s}$ pipelined-SAR ADC, achieving Walden and Schreier FoMs of $3.8 \mathrm{fJ} / \mathrm{c}$. s. and $174.2 \mathrm{~dB}$, respectively, without any ring amplifier bias or residue gain calibration.</t>
+  </si>
+  <si>
+    <t>10.1109/ISSCC49657.2024.10454422</t>
+  </si>
+  <si>
+    <t>Zainubia and Singh, Bipul Kumar and Pundir, Manish and Dubey, Subhash Chander and Shah, Ambika Prasad</t>
+  </si>
+  <si>
+    <t>Parallel-Series Diode-based Ring Amplifier for Switched Capacitor Circuits</t>
+  </si>
+  <si>
+    <t>In this paper, a new ring amplifier architecture is proposed. The new architecture uses a parallel-series diode-connected resistor in place of a resistor in the second stage of the conventional self-biased ring amplifier. The settling time, dead zone voltage, and output voltage of the ring amplifier all are improved to a great extent. The proposed modification is implemented and verified using simulations in Cadence Virtuoso with 45nm industry standard CMOS technology. The simulation results demonstrate that the modified ring amplifier achieves a settling time of 3.51 ns and the dead zone voltage is 998.60 mV which is $0.54 \times$ and $1.21 \times$ than that of the conventional self-biased ring amplifier. 2000 Monte Carlo simulations on settling time show the proposed circuit is robust against the process variations and has minimum deviation.</t>
+  </si>
+  <si>
+    <t>10.1109/VLSID60093.2024.00031</t>
+  </si>
+  <si>
+    <t>VLSID</t>
+  </si>
+  <si>
+    <t>Fu, Yecong and Jian, Mingchao and Zheng, Jiwei and Guo, Chunbing</t>
+  </si>
+  <si>
+    <t>A 100MS/s 12 Bit SAR-assisted Pipeline ADC with Gain-enhanced Fully Differential Ring Amplifier</t>
+  </si>
+  <si>
+    <t>A 12 bit 100 MS/s SAR-assisted pipeline ADC with a 6-bit SAR ADC for the first stage and a 7-bit SAR ADC for the second stage is presented. The sub-ADCs adopt the upper plate sampling asynchronous SAR logic. The gain-enhanced fully differential ring amplifier acts as a residue amplifier, providing high-precision settling and accommodating large signal swings. The cascoded output stages are designed in the ring amplifier to enhance the closed loop accuracy. A prototype ADC has been designed and simulated using TSMC65nm CMOS technology, and it operates with a standard 1.2 V supply voltage.The SNDR and ENOB is 63.6dB and 10.28bit respectively from the simulation results, with a Nyquist frequency input sampled at 100 MS/s. The ADC achieves a FoM of 32.01 fJ/conversion-step.</t>
+  </si>
+  <si>
+    <t>10.1109/IWS58240.2023.10222791</t>
+  </si>
+  <si>
+    <t>IWS</t>
+  </si>
+  <si>
+    <t>Liu, Bin and Li, Nannan and Chen, Xuhui and Dai, Zhichao and Ge, Yufeng and Jiang, Zheng and Qi, Huanhuan and Zhang, Jie and Wang, Jinfu and Wang, Xiaofei and Chen, Zhenhai and Xue, Yan and Zhang, Hong</t>
+  </si>
+  <si>
+    <t>Artificial Neural Network Based Calibration for a 12 b 250 MS/s Pipelined-SAR ADC With Ring Amplifier in 40-nm CMOS</t>
+  </si>
+  <si>
+    <t>This paper presents a 2-stage pipelined-SAR ADC with artificial-neural-network (ANN) based digital calibration algorithm to calibrate the mismatch error in the  $1^{\mathrm {st}}$ -stage capacitive DAC (CDAC) and the inter-stage gain error (IGE) together. Previous ANN-based calibration schemes suffer from excessive power and hardware overhead due to the large number of network parameters. To facilitate hardware implementation, the proposed algorithm only requires  $N_{1}+1$  input parameters ( $N_{1}$  is the resolution of the  $1^{\mathrm {st}}$ -stage SAR ADC), in which the overall output of the  $2^{\mathrm {nd}}$ -stage SAR ADC is combined into a single parameter. In addition, the ANN utilizes a single-neuron hidden layer with linear activation function to calculate the actual bit weight of the ADC, remarkably reducing the hardware overhead and power consumption of the calibration circuit. The prototype 12-bit, 250 MS/s pipelined-SAR ADC with “loop-unrolled” architecture is implemented in 40-nm CMOS, in which a ring amplifier with improved bias circuit is used to realize a robust closed-loop gain for residue amplification. With the ANN-based calibration circuit implemented in an FPGA, the calibrated ADC achieves the SNDR of 65.0 dB and the SFDR of 84.0 dB at Nyquist input (124 MHz), with a Schreier figure of merit of 169.0 dB and a Walden figure of merit of 14.0 fJ/conv-step. The ADC core consumes 4.95 mW, with an active area of only 0.013 mm2.</t>
+  </si>
+  <si>
+    <t>10.1109/TCSI.2024.3429309</t>
+  </si>
+  <si>
+    <t>Lim, Yong and Lee, Jaehoon and Lee, Jongmi and Lim, Kwangmin and Oh, Seunghyun and Lee, Jongwoo</t>
+  </si>
+  <si>
+    <t>A 2.08-mW 64.4-dB SNDR 400-MS/s Pipelined- SAR ADC Using Mismatch and PVT Variation Tolerant Dynamically Biased Ring Amplifier in 8 nm</t>
+  </si>
+  <si>
+    <t>In this article, we introduce a new dynamically biased ring amplifier that is tolerant to mismatch and PVT variation without requiring bias calibration, and we verify it in a 12-bit 400-MS/s pipelined-SAR analog-to-digital converter (ADC), fabricated in an 8-nm FinFET process. Our novel ring amplifier solves the biasing issues inherent in conventional ring amplifiers while maintaining the benefits of high gain, slew-based charging, and nearly rail-to-rail output swing. We also propose a technique to enhance the DC accuracy of a switched-capacitor common-mode feedback (CMFB) without consuming additional power, which we named feedback voltage sampling CMFB. Furthermore, we introduce a full-scale matching residue amplification technique for the prototype pipelined-SAR ADC to utilize the top-plate input sampling for the first-stage SAR ADC, resulting in faster and lower power conversion. The prototype ADC demonstrates the robustness of our dynamically biased ring amplifier to mismatch and PVT variation without any interstage gain, bias, or reference calibration, and achieves 64.4-dB SNDR and 77.6-dB SFDR for a low-frequency input while consuming 2.08 mW. This measured performance is equivalent to Walden and Schreier FoMs of 3.8 fJ/conversion $\cdot $ step and 174.2 dB, respectively.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3471915</t>
+  </si>
+  <si>
+    <t>Wang, Shao-Yu and Lee, Tai-Cheng</t>
+  </si>
+  <si>
+    <t>An 800-MS/s 8.2-ENOB TDC-Assisted Pipelined-SAR ADC With Parallel Conversion</t>
+  </si>
+  <si>
+    <t>This brief presents a ring amplifier embedded with the time-to-digital converter (TDC) to implement parallel conversion techniques in a pipelined-SAR ADC. The ring amplifier, functioning as the residue amplifier, has a crucial role of providing information for the time-domain quantizer. This technique need no additional complex circuits and capacitors for applying parallel conversion techniques, resulting in 20% sampling rate boost. Fabricated in a 28-nm CMOS technology, the ADC achieves a 45.06-dB SNDR at 800 MS/s and consumes 4.84 mW with a 0.9-V supply, yielding a Walden FOM of 41.4 fJ/conv-step.</t>
+  </si>
+  <si>
+    <t>10.1109/TCSII.2024.3445653</t>
+  </si>
+  <si>
+    <t>Hsu, Chao-Yen and Lee, Tai-Cheng</t>
+  </si>
+  <si>
+    <t>A Calibration-Free 9.3-ENOB 1-GS/s Pipelined ADC With PVT-Insensitive Nested Ring Amplifiers</t>
+  </si>
+  <si>
+    <t>This paper presents a nested ring amplifier with dynamic-cascode-bias and gain-boosting techniques. The proposed amplifier achieves a gain of 90 dB while preserving the high-slew capability. The amplifier is employed in a MDAC for a calibration-free 11-bit 1-GS/s single-channel pipelined ADC. Furthermore, the proposed biasing circuits are utilized to alleviate PVT sensitivity. Fabricated in a 28-nm CMOS technology, the ADC achieves a 61.72-dB SFDR and 53.52-dB SNDR at a Nyquist input, while consuming 14.7 mW from a 1-V supply and yielding Schreier and Walden figure-of-merit (FoM) values of 159 dB and 37.9 fJ/conv.-step, respectively.</t>
+  </si>
+  <si>
+    <t>10.1109/TCSII.2024.3466902</t>
+  </si>
+  <si>
+    <t>A Generated 4 GS/s 124.6 mW 8× Time-Interleaved SAR-VCO ADC with 9.1 ENOB</t>
+  </si>
+  <si>
+    <t>Liu, Zhaokai and Nikolić, Borivoje</t>
+  </si>
+  <si>
+    <t>This work presents an eight-way time-interleaved SAR-VCO ADC implemented in the Intel 16 process that operates at $4 \mathrm{GS} / \mathrm{s}$ with 9.1 ENOB resolution. The sub-ADC design combines SAR and time-domain data conversion and uses a ring amplifier for the interstage residue amplification. The ADC achieves SNDR and SFDR of 56.5 dB and 72.9 dB with a Nyquist frequency input. The ADC core occupies $0.36 \mathrm{~mm}^{2}$ and consumes 124.6 mW, yielding the FoM ${ }_{\mathrm{W}}$ and the $\mathrm{FoM}_{\mathrm{S}}$ of $57.1 \mathrm{fJ} /$ conv.-step and 158.4 dB. The implemented ADC is an instance produced by a highly parameterized circuit generator that enables rapid design-space exploration through automated circuit generation.</t>
+  </si>
+  <si>
+    <t>10.1109/ESSERC62670.2024.10719498</t>
+  </si>
+  <si>
+    <t>ESSERC</t>
+  </si>
+  <si>
+    <t>Hybrid ADC</t>
+  </si>
+  <si>
+    <t>VCO, SAR, Interleaved</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>This work presents a discrete-time (DT) delta sigma modulator (DSM) ADC that uses ring amplifiers to relax critical speed and efficiency bottlenecks. The DSM is designed as a 3 rd -order Cascade of Integrator with Feed Forward (CIFF) with a 4-bit quantizer, and it achieves a peak SNDR of 67dB and DR of 70.0dB with 47.5MHz bandwidth when clocked at 950MHz. This is the highest bandwidth reported to-date among single-channel DT DSM ADCs and demonstrates a viable alternative to continuous-time (CT) DSM ADCs for wideband oversampling applications. With a power consumption of 4.7mW from a 1V supply, FOMs and FOMw are 167.0dB and 27.0fJ/c.s. respectively, demonstrating efficient DT delta-sigma conversion with high bandwidth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,11 +1880,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1327,7 +1912,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1353,11 +1938,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1367,18 +1967,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,9 +2104,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$A$2:$A$12</c:f>
+              <c:f>Analysis!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -1517,6 +2139,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1575,10 +2203,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$2:$B$12</c:f>
+              <c:f>Analysis!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1610,7 +2238,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,10 +2620,10 @@
                   <c:v>Neuromorphic</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Wireless</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Undefined</c:v>
+                  <c:v>General</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2001,22 +2635,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -2031,10 +2665,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,34 +3050,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,9 +5066,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4472,7 +5106,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4578,7 +5212,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4720,7 +5354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4728,2167 +5362,3572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.7265625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="90.26953125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="18.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="60.453125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.26953125" style="3"/>
+    <col min="1" max="1" width="7.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13" style="8" customWidth="1"/>
+    <col min="3" max="4" width="21.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="114.7265625" style="8" customWidth="1"/>
+    <col min="6" max="8" width="33.26953125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="11.6328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C54" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C72" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D74" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C107" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D108" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C113" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D114" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C115" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E115" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="E118" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C119" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E119" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D121" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E128" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>407</v>
+      <c r="E131" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
-    <sortCondition ref="A2:A77"/>
-    <sortCondition ref="B2:B77"/>
-    <sortCondition ref="E2:E77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I132">
+    <sortCondition ref="A2:A132"/>
+    <sortCondition ref="B2:B132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6900,7 +8939,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6914,7 +8953,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7013,20 +9052,33 @@
       </c>
       <c r="B12" s="3">
         <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A12)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>408</v>
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A13)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A14)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7035,7 +9087,7 @@
       </c>
       <c r="B18" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A18)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7044,30 +9096,30 @@
       </c>
       <c r="B19" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A20)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A22)</f>
@@ -7076,16 +9128,16 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A23)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A24)</f>
@@ -7094,7 +9146,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A25)</f>
@@ -7103,7 +9155,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A26)</f>
@@ -7112,7 +9164,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A27)</f>
@@ -7121,43 +9173,43 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>368</v>
+        <v>535</v>
       </c>
       <c r="B28" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>601</v>
       </c>
       <c r="B29" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A29)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7165,7 +9217,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7174,7 +9226,7 @@
       </c>
       <c r="B37" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A37)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7183,7 +9235,7 @@
       </c>
       <c r="B38" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A38)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7192,7 +9244,7 @@
       </c>
       <c r="B39" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A39)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7201,7 +9253,7 @@
       </c>
       <c r="B40" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A40)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7210,16 +9262,16 @@
       </c>
       <c r="B41" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7228,7 +9280,7 @@
       </c>
       <c r="B43" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A43)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7237,29 +9289,103 @@
       </c>
       <c r="B44" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B45" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A45)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B46" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B37:B45)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767B74E5-BA40-4035-838C-6038FA255288}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="20.54296875" style="3" customWidth="1"/>
+    <col min="4" max="8" width="25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhershbe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EF71A4-3757-42F0-A662-75076A0F1786}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,24 +1885,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1912,7 +1894,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1927,15 +1909,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1957,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1970,37 +1943,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5365,3562 +5310,3536 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13" style="8" customWidth="1"/>
-    <col min="3" max="4" width="21.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="114.7265625" style="8" customWidth="1"/>
-    <col min="6" max="8" width="33.26953125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="11.6328125" style="8"/>
+    <col min="1" max="1" width="7.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="4" width="21.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="114.7265625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="33.26953125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>2012</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2012</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2012</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2013</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>2014</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>2015</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="I7" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>2015</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>2015</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>2015</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>2016</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="3">
         <v>2016</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="I14" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>2017</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="3">
         <v>2017</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="3">
         <v>2017</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="3">
         <v>2017</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>2017</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="I20" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>2017</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>2018</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>2018</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>2018</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26" s="3">
         <v>2018</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>2018</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="3">
         <v>2018</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29" s="3">
         <v>2018</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30" s="3">
         <v>2018</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="A31" s="3">
         <v>2018</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32" s="3">
         <v>2018</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="3">
         <v>2019</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34" s="3">
         <v>2019</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="A35" s="3">
         <v>2019</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36" s="3">
         <v>2019</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="3">
         <v>2019</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="I37" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>2019</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>2019</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>2019</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>2019</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>2019</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>2019</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>2019</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+      <c r="A45" s="3">
         <v>2019</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+      <c r="A46" s="3">
         <v>2019</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+      <c r="I46" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>2020</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+      <c r="A48" s="3">
         <v>2020</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+      <c r="A49" s="3">
         <v>2020</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+      <c r="A50" s="3">
         <v>2020</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+      <c r="I50" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>2020</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>2020</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+      <c r="A53" s="3">
         <v>2020</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="I53" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>2020</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>2020</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+      <c r="A56" s="3">
         <v>2020</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+      <c r="A57" s="3">
         <v>2020</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+      <c r="I57" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>2020</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
+      <c r="A59" s="3">
         <v>2021</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+      <c r="A60" s="3">
         <v>2021</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="A61" s="3">
         <v>2021</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="A62" s="3">
         <v>2021</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+      <c r="A63" s="3">
         <v>2021</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="I63" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>2021</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>2021</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>2021</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="A67" s="3">
         <v>2021</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+      <c r="A68" s="3">
         <v>2021</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
+      <c r="A69" s="3">
         <v>2021</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
+      <c r="A70" s="3">
         <v>2021</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
+      <c r="A71" s="3">
         <v>2021</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8">
+      <c r="I71" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
         <v>2021</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>2022</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
+      <c r="I73" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>2022</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
+      <c r="I74" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>2022</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8">
+      <c r="I75" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>2022</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
+      <c r="A77" s="3">
         <v>2022</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="8">
+      <c r="A78" s="3">
         <v>2022</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="8">
+      <c r="A79" s="3">
         <v>2022</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="8">
+      <c r="A80" s="3">
         <v>2022</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="8">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>2022</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="I81" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="8">
+      <c r="A82" s="3">
         <v>2022</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="8">
+      <c r="A83" s="3">
         <v>2022</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="8">
+      <c r="A84" s="3">
         <v>2022</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8">
+      <c r="I84" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
         <v>2022</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="8">
+      <c r="I85" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>2022</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I86" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8">
+      <c r="I86" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
         <v>2022</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="8">
+      <c r="I87" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>2022</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="8">
+      <c r="I88" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
         <v>2022</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="8">
+      <c r="I89" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>2023</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H90" s="12" t="s">
+      <c r="H90" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8">
+      <c r="I90" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
         <v>2023</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="8">
+      <c r="I91" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
         <v>2023</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="8">
+      <c r="I92" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
         <v>2023</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H93" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="8">
+      <c r="I93" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
         <v>2023</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="H94" s="12" t="s">
+      <c r="H94" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="8">
+      <c r="I94" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
         <v>2023</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="H95" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="8">
+      <c r="I95" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
         <v>2023</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="H96" s="12" t="s">
+      <c r="H96" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="8">
+      <c r="I96" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
         <v>2023</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="H97" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="8">
+      <c r="I97" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
         <v>2023</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G98" s="12" t="s">
+      <c r="G98" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H98" s="12" t="s">
+      <c r="H98" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="8">
+      <c r="I98" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
         <v>2023</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="H99" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="8">
+      <c r="I99" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
         <v>2023</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="8">
+      <c r="I100" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
         <v>2023</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="8">
+      <c r="I101" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
         <v>2023</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="8">
+      <c r="I102" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
         <v>2023</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G103" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H103" s="12" t="s">
+      <c r="H103" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="8">
+      <c r="I103" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
         <v>2023</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F104" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G104" s="12" t="s">
+      <c r="G104" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="H104" s="12" t="s">
+      <c r="H104" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="8">
+      <c r="I104" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
         <v>2023</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="F105" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H105" s="12" t="s">
+      <c r="H105" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="8">
+      <c r="I105" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
         <v>2023</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F106" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G106" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="H106" s="12" t="s">
+      <c r="H106" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="8">
+      <c r="I106" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
         <v>2023</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G107" s="12" t="s">
+      <c r="G107" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H107" s="12" t="s">
+      <c r="H107" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="8">
+      <c r="I107" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
         <v>2024</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G108" s="12" t="s">
+      <c r="G108" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="H108" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="8">
+      <c r="I108" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
         <v>2024</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F109" s="12" t="s">
+      <c r="F109" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="G109" s="12" t="s">
+      <c r="G109" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="H109" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I109" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="8">
+      <c r="I109" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
         <v>2024</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F110" s="12" t="s">
+      <c r="F110" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="H110" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I110" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="8">
+      <c r="I110" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
         <v>2024</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="G111" s="12" t="s">
+      <c r="G111" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="H111" s="12" t="s">
+      <c r="H111" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="I111" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="8">
+      <c r="I111" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
         <v>2024</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F112" s="12" t="s">
+      <c r="F112" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="G112" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="H112" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="8">
+      <c r="I112" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
         <v>2024</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F113" s="12" t="s">
+      <c r="F113" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="G113" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H113" s="11"/>
-      <c r="I113" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="8">
+      <c r="I113" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
         <v>2024</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F114" s="12" t="s">
+      <c r="F114" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="G114" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="H114" s="12" t="s">
+      <c r="H114" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="I114" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="8">
+      <c r="I114" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
         <v>2024</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="F115" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="G115" s="12" t="s">
+      <c r="G115" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="H115" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I115" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="8">
+      <c r="I115" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
         <v>2024</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="F116" s="12" t="s">
+      <c r="F116" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="G116" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="H116" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="I116" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="8">
+      <c r="I116" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
         <v>2024</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="F117" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G117" s="12" t="s">
+      <c r="G117" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="H117" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I117" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="8">
+      <c r="I117" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
         <v>2024</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F118" s="12" t="s">
+      <c r="F118" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G118" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H118" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I118" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="8">
+      <c r="I118" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
         <v>2024</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F119" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G119" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="H119" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="8">
+      <c r="I119" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
         <v>2024</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G120" s="12" t="s">
+      <c r="G120" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H120" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I120" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="8">
+      <c r="I120" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
         <v>2024</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G121" s="12" t="s">
+      <c r="G121" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H121" s="12" t="s">
+      <c r="H121" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="8">
+      <c r="I121" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
         <v>2024</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="F122" s="12" t="s">
+      <c r="F122" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G122" s="12" t="s">
+      <c r="G122" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="H122" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I122" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="8">
+      <c r="I122" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
         <v>2024</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="G123" s="12" t="s">
+      <c r="G123" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="H123" s="12" t="s">
+      <c r="H123" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="I123" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="8">
+      <c r="I123" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
         <v>2024</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F124" s="12" t="s">
+      <c r="F124" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G124" s="12" t="s">
+      <c r="G124" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H124" s="12" t="s">
+      <c r="H124" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I124" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="8">
+      <c r="I124" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
         <v>2024</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F125" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H125" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="I125" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="8">
+      <c r="I125" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
         <v>2024</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="G126" s="12" t="s">
+      <c r="G126" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="H126" s="12" t="s">
+      <c r="H126" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="I126" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="8">
+      <c r="I126" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
         <v>2024</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G127" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="H127" s="12" t="s">
+      <c r="H127" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="I127" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="8">
+      <c r="I127" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
         <v>2024</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F128" s="12" t="s">
+      <c r="F128" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G128" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="H128" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="I128" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="8">
+      <c r="I128" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
         <v>2024</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F129" s="12" t="s">
+      <c r="F129" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G129" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="H129" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="I129" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="8">
+      <c r="I129" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
         <v>2024</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F130" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H130" s="12" t="s">
+      <c r="H130" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="8">
+      <c r="I130" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
         <v>2024</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="F131" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G131" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="H131" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I131" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="8">
+      <c r="I131" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
         <v>2024</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F132" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I132" s="3" t="s">
         <v>603</v>
       </c>
     </row>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EF71A4-3757-42F0-A662-75076A0F1786}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E613743B-70C7-457E-8B14-69337C47C47D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Interesting Counter-Arguments" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="600">
   <si>
     <t>Title</t>
   </si>
@@ -1570,18 +1569,6 @@
   </si>
   <si>
     <t>10.1109/ASID60355.2023.10426347</t>
-  </si>
-  <si>
-    <t>Hsieh, Sung-En and Wu, Tzu-Chien and Hou, Chun-Chih</t>
-  </si>
-  <si>
-    <t>Good FoM with simple OTA</t>
-  </si>
-  <si>
-    <t>A 1.8GHz 12b Pre-Sampling Pipelined ADC with Reference Buffer and OP Power Relaxations</t>
-  </si>
-  <si>
-    <t>10.1109/ISSCC42615.2023.10067258</t>
   </si>
   <si>
     <t>Hu, Hang and Vesely, Vladimir and Moon, Un-Ku</t>
@@ -1855,7 +1842,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,12 +1866,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1894,7 +1875,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1902,35 +1883,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1940,12 +1897,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2952,37 +2903,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$37:$A$46</c:f>
+              <c:f>Analysis!$A$38:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>JSSC</c:v>
+                  <c:v>ISSCC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ISSCC</c:v>
+                  <c:v>VLSI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VLSI</c:v>
+                  <c:v>CICC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CICC</c:v>
+                  <c:v>ESSERC</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ESSCIRC</c:v>
+                  <c:v>ASSCC</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ASSCC</c:v>
+                  <c:v>RFIC</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ISCAS</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>JSSC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TCAS-I</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>TCAS-II</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>TVLSI</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
@@ -2990,39 +2947,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$37:$B$46</c:f>
+              <c:f>Analysis!$B$38:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5309,8 +5272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -5506,7 +5469,7 @@
         <v>118</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -5610,7 +5573,7 @@
         <v>188</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -5636,7 +5599,7 @@
         <v>114</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -5647,7 +5610,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>209</v>
@@ -5662,7 +5625,7 @@
         <v>211</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -5688,7 +5651,7 @@
         <v>141</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -5725,7 +5688,7 @@
         <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>124</v>
@@ -5740,7 +5703,7 @@
         <v>127</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -5769,7 +5732,7 @@
         <v>207</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -5795,7 +5758,7 @@
         <v>93</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -5821,7 +5784,7 @@
         <v>156</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -5832,7 +5795,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>142</v>
@@ -5847,7 +5810,7 @@
         <v>146</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -5925,7 +5888,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -5936,7 +5899,7 @@
         <v>190</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>191</v>
@@ -5951,7 +5914,7 @@
         <v>192</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -5980,7 +5943,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -6006,7 +5969,7 @@
         <v>214</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -6032,7 +5995,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -6043,7 +6006,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>286</v>
@@ -6058,7 +6021,7 @@
         <v>288</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -6069,7 +6032,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>246</v>
@@ -6084,7 +6047,7 @@
         <v>248</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -6110,7 +6073,7 @@
         <v>151</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -6121,7 +6084,7 @@
         <v>239</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>236</v>
@@ -6136,7 +6099,7 @@
         <v>238</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -6165,7 +6128,7 @@
         <v>276</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -6176,7 +6139,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>133</v>
@@ -6191,7 +6154,7 @@
         <v>137</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -6217,7 +6180,7 @@
         <v>272</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -6243,7 +6206,7 @@
         <v>63</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -6269,7 +6232,7 @@
         <v>175</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -6280,7 +6243,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>166</v>
@@ -6295,7 +6258,7 @@
         <v>168</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -6515,7 +6478,7 @@
         <v>222</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -6541,7 +6504,7 @@
         <v>296</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -6567,7 +6530,7 @@
         <v>123</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -6593,7 +6556,7 @@
         <v>184</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -6619,7 +6582,7 @@
         <v>55</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -6645,7 +6608,7 @@
         <v>231</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -6729,7 +6692,7 @@
         <v>244</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -6810,7 +6773,7 @@
         <v>235</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -6821,7 +6784,7 @@
         <v>239</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>282</v>
@@ -6836,7 +6799,7 @@
         <v>284</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -6888,7 +6851,7 @@
         <v>264</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -6899,7 +6862,7 @@
         <v>319</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>305</v>
@@ -6917,7 +6880,7 @@
         <v>318</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -6943,7 +6906,7 @@
         <v>31</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -6966,10 +6929,10 @@
         <v>33</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -6995,7 +6958,7 @@
         <v>199</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -7090,7 +7053,7 @@
         <v>145</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>201</v>
@@ -7105,7 +7068,7 @@
         <v>203</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -7131,7 +7094,7 @@
         <v>44</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -7157,7 +7120,7 @@
         <v>252</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -7186,7 +7149,7 @@
         <v>323</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -7197,7 +7160,7 @@
         <v>239</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>265</v>
@@ -7212,7 +7175,7 @@
         <v>268</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -7249,22 +7212,22 @@
         <v>128</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -7293,7 +7256,7 @@
         <v>345</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -7322,7 +7285,7 @@
         <v>375</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -7348,7 +7311,7 @@
         <v>367</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -7368,13 +7331,13 @@
         <v>370</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -7515,7 +7478,7 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>363</v>
@@ -7530,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -7556,7 +7519,7 @@
         <v>374</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -7582,7 +7545,7 @@
         <v>353</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -7608,7 +7571,7 @@
         <v>300</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -7622,7 +7585,7 @@
         <v>65</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>298</v>
@@ -7637,7 +7600,7 @@
         <v>300</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -7663,7 +7626,7 @@
         <v>361</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -7689,7 +7652,7 @@
         <v>361</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -7700,7 +7663,7 @@
         <v>506</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>507</v>
@@ -7718,7 +7681,7 @@
         <v>509</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -7732,19 +7695,19 @@
         <v>65</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -7773,7 +7736,7 @@
         <v>406</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -7787,19 +7750,19 @@
         <v>65</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>434</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -7825,7 +7788,7 @@
         <v>413</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -7833,25 +7796,25 @@
         <v>2023</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -7859,25 +7822,25 @@
         <v>2023</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -7903,7 +7866,7 @@
         <v>474</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -7929,7 +7892,7 @@
         <v>478</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -7955,7 +7918,7 @@
         <v>478</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -7984,7 +7947,7 @@
         <v>499</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -7992,25 +7955,25 @@
         <v>2023</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -8036,7 +7999,7 @@
         <v>469</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -8065,7 +8028,7 @@
         <v>495</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -8076,7 +8039,7 @@
         <v>462</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>458</v>
@@ -8091,7 +8054,7 @@
         <v>460</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -8117,7 +8080,7 @@
         <v>416</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -8128,22 +8091,22 @@
         <v>418</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -8172,7 +8135,7 @@
         <v>465</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -8180,28 +8143,28 @@
         <v>2024</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -8209,7 +8172,7 @@
         <v>2024</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>65</v>
@@ -8227,7 +8190,7 @@
         <v>446</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -8235,25 +8198,25 @@
         <v>2024</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -8261,28 +8224,28 @@
         <v>2024</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -8311,7 +8274,7 @@
         <v>451</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -8334,7 +8297,7 @@
         <v>426</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -8363,7 +8326,7 @@
         <v>486</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -8377,19 +8340,19 @@
         <v>65</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -8397,25 +8360,25 @@
         <v>2024</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -8444,7 +8407,7 @@
         <v>420</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -8470,7 +8433,7 @@
         <v>424</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -8496,7 +8459,7 @@
         <v>432</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -8522,7 +8485,7 @@
         <v>435</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -8551,7 +8514,7 @@
         <v>481</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -8562,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>502</v>
@@ -8577,7 +8540,7 @@
         <v>503</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -8591,19 +8554,19 @@
         <v>65</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -8632,7 +8595,7 @@
         <v>457</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -8640,25 +8603,25 @@
         <v>2024</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -8672,19 +8635,19 @@
         <v>65</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -8698,19 +8661,19 @@
         <v>65</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -8724,19 +8687,19 @@
         <v>36</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -8762,7 +8725,7 @@
         <v>489</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -8788,7 +8751,7 @@
         <v>439</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -8814,7 +8777,7 @@
         <v>443</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -8822,25 +8785,25 @@
         <v>2024</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -8855,10 +8818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F627AA-E3AE-4351-92AE-68BECE4A1E4C}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9092,7 +9055,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B28" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
@@ -9101,7 +9064,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B29" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A29)</f>
@@ -9139,15 +9102,6 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A37)</f>
-        <v>24</v>
-      </c>
-    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
@@ -9177,11 +9131,11 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>594</v>
       </c>
       <c r="B41" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A41)</f>
-        <v>3</v>
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,"ESSCIRC")+COUNTIF('Ringamp Publication List'!$B$2:$B$997,"ESSERC")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -9195,116 +9149,69 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>530</v>
       </c>
       <c r="B43" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A43)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A44)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A45)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A46)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A47)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="3">
+        <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>337</v>
       </c>
-      <c r="B46" s="3">
-        <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B37:B45)</f>
-        <v>37</v>
+      <c r="B49" s="3">
+        <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767B74E5-BA40-4035-838C-6038FA255288}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="20.54296875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.453125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E613743B-70C7-457E-8B14-69337C47C47D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83318DCB-DEDF-41E9-AE4D-F84F867709C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="601">
   <si>
     <t>Title</t>
   </si>
@@ -80,9 +80,6 @@
     <t>10.1109/JSSC.2021.3053893</t>
   </si>
   <si>
-    <t>A 4× interleaved pipelined ADC for direct-RF sampling applications is presented. It leverages the performance advantages of ring amplifiers to unlock greater architectural freedom. The first pipeline stage MDAC with a “passive-hold” mode eliminates the sub-ADC sampling path and associated problems. A high-speed ringamp topology employs digital bias control, robust common-mode feedback (CMFB), and an elegant self-resetting behavior. An asynchronous, event-driven timing control system improves several aspects of performance and enables fully dynamic power consumption and modular design re-use. A general technique is presented whereby the signal-to-distortion ratio (SDR) of any amplifier in the system can be measured in the background with an analog hardware overhead of only one comparator. In this amplifier-intensive architecture utilizing 36 ringamps, the 4-GS/s ADC fabricated in 16-nm CMOS achieves 62-dB SNDR and 75-dB SFDR at Nyquist, consumes 75 mW (including input buffer), and has a Walden figure of merit (FoM) of 18 fJ/conversion-step and a Schreier FoM of 166 dB, advancing the state of the art in direct-RF sampling ADCs by roughly an order of magnitude.</t>
-  </si>
-  <si>
     <t>Hershberg, Benjamin and Dermit, Davide and van Liempd, Barend and Martens, Ewout and Markulić, Nereo and Lagos, Jorge and Craninckx, Jan</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Hershberg, Benjamin and Dermit, Davide and Liempd, Barend van and Martens, Ewout and Markulic, Nereo and Lagos, Jorge and Craninckx, Jan</t>
   </si>
   <si>
-    <t>Giga-sample ADCs targeting high performance communication applications such as direct-RF sampling all rely on some form of residue amplification to minimize the number of interleaved channels and meet demanding specifications. Despite architectural efforts to reduce the total number of amplifiers in the system, the challenges associated with designing them for high bandwidth and linearity has limited reported power efficiencies [1]. In this work, we show that ring amplification [2] can overcome this longstanding bottleneck. In an architecture using 36 ringamps, the 3.2GS/s ADC consuming 61.3mW has a Nyquist SNDR of 61.7dB, SFDR of 73.3dB, Walden FoM of 19.2fJ/conv-step, and Schreier FoM of 165.9dB. Furthermore, we demonstrate a general technique whereby the signal-to-distortion ratio (SDR) of any amplifier in the system can be independently monitored in the background with an analog hardware overhead of only one comparator.</t>
-  </si>
-  <si>
     <t>10.1109/ISSCC.2019.8662290</t>
   </si>
   <si>
@@ -1049,9 +1043,6 @@
     <t>This article presents a 14-b 100-MS/s single-channel pipelined-successive-approximation register (SAR) ADC using a weighted-averaging correlated level shifting (WACLS) technique. For a closed-loop residue amplification, the error voltage due to the finite operational amplifier (opamp) gain can be ideally removed by the proposed WACLS technique with a low-gain opamp. In addition, the opamp bandwidth degradation, by an extra level-shift capacitor (CLS) in two-phase amplification CLS-based circuits, can be relaxed and minimized in WACLS. Furthermore, a speed-enhancement scheme is provided to alleviate the speed degradation owing to one extra amplification phase and long bit-cycling time from two-phase amplification and SAR circuits, respectively. A modified reference swapping (RS) technique is applied to diminish the capacitor mismatch error without any calibration. A quick startup ring amplifier design is introduced for duty-cycled control power saving. The chip is implemented in the 28-nm CMOS technology and occupies an active area of 0.018 mm 2 . At 100 MS/s and Nyquist-rate input, the measured SNDR is 71.7 dB with 0.7-mW power consumption only. The calibration-free ADC achieves Walden and Schreier figure-of-merit of 2.2 fJ/conversion-step and 180.2 dB, respectively. Compared with the prior-art ADCs with sampling frequency 100 MS/s and SNDR 65 dB, this work advances the state-of-the-art by 3× and 5.3 dB, respectively.</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>a quick sanity check here…</t>
   </si>
   <si>
@@ -1535,9 +1526,6 @@
     <t>10.4 A Rail-to-Rail 12MS 91.3dB SNDR 94.1dB DR Two-Step SAR ADC with Integrated Input Buffer Using Predictive Level-Shifting</t>
   </si>
   <si>
-    <t>Recent years have witnessed the development of high-resolution ADCs &gt;14b utilizing the power-efficient SAR topology at medium speed (1-20MSps) [1–4]. However, high-resolution discrete-time Nyquist ADCs are difficult to drive, especially at high sampling frequencies, due to their large input sampling capacitance required to suppress thermal noise. Standalone general-use buffers are costly since a wide supply-range is needed to maintain linearity across signal swing resulting in low power-efficiency. Integrated driving techniques such as [5] have also been explored although the use of the embedded buffer inside the SAR loop requires each SAR decision trial to resettle through the bandwidth of the buffer, while also requiring a separate larger power supply (2.5V) to accommodate the 1.8Vpp signal swing. This work presents the predictive level-shifting integrated driving technique, implemented in a two-step SAR ADC with 3.3V/1.8V supplies, capable of processing rail-to-rail 6.6Vppd input, resulting in a peak SNDR of 91.3dB with a 4MHz input signal at 12MS/s.</t>
-  </si>
-  <si>
     <t>10.1109/ISSCC42615.2023.10067703</t>
   </si>
   <si>
@@ -1836,13 +1824,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Non-Specific</t>
+  </si>
+  <si>
+    <t>Giga-sample ADCs targeting high performance communication applications such as direct-RF sampling all rely on some form of residue amplification to minimize the number of interleaved channels and meet demanding specifications. Despite architectural efforts to reduce the total number of amplifiers in the system, the challenges associated with designing them for high bandwidth and linearity has limited reported power efficiencies [1]. In this work, we show that ring amplification [2] can overcome this longstanding bottleneck. In an architecture using 36 ringamps, the 3.2GS/s ADC consuming 61.3mW has a Nyquist SNDR of 61.7dB, SFDR of 73.3dB, Walden FoM of 19.2fJ/conv-step, and Schreier FoM of 165.9dB. Furthermore, we demonstrate a Non-Specific technique whereby the signal-to-distortion ratio (SDR) of any amplifier in the system can be independently monitored in the background with an analog hardware overhead of only one comparator.</t>
+  </si>
+  <si>
+    <t>A 4× interleaved pipelined ADC for direct-RF sampling applications is presented. It leverages the performance advantages of ring amplifiers to unlock greater architectural freedom. The first pipeline stage MDAC with a “passive-hold” mode eliminates the sub-ADC sampling path and associated problems. A high-speed ringamp topology employs digital bias control, robust common-mode feedback (CMFB), and an elegant self-resetting behavior. An asynchronous, event-driven timing control system improves several aspects of performance and enables fully dynamic power consumption and modular design re-use. A Non-Specific technique is presented whereby the signal-to-distortion ratio (SDR) of any amplifier in the system can be measured in the background with an analog hardware overhead of only one comparator. In this amplifier-intensive architecture utilizing 36 ringamps, the 4-GS/s ADC fabricated in 16-nm CMOS achieves 62-dB SNDR and 75-dB SFDR at Nyquist, consumes 75 mW (including input buffer), and has a Walden figure of merit (FoM) of 18 fJ/conversion-step and a Schreier FoM of 166 dB, advancing the state of the art in direct-RF sampling ADCs by roughly an order of magnitude.</t>
+  </si>
+  <si>
+    <t>Recent years have witnessed the development of high-resolution ADCs &gt;14b utilizing the power-efficient SAR topology at medium speed (1-20MSps) [1–4]. However, high-resolution discrete-time Nyquist ADCs are difficult to drive, especially at high sampling frequencies, due to their large input sampling capacitance required to suppress thermal noise. Standalone Non-Specific-use buffers are costly since a wide supply-range is needed to maintain linearity across signal swing resulting in low power-efficiency. Integrated driving techniques such as [5] have also been explored although the use of the embedded buffer inside the SAR loop requires each SAR decision trial to resettle through the bandwidth of the buffer, while also requiring a separate larger power supply (2.5V) to accommodate the 1.8Vpp signal swing. This work presents the predictive level-shifting integrated driving technique, implemented in a two-step SAR ADC with 3.3V/1.8V supplies, capable of processing rail-to-rail 6.6Vppd input, resulting in a peak SNDR of 91.3dB with a 4MHz input signal at 12MS/s.</t>
+  </si>
+  <si>
+    <t>All other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1861,6 +1864,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1887,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1897,6 +1908,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,10 +2071,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Analysis!$A$2:$A$12</c:f>
+              <c:f>Analysis!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2093,6 +2107,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,7 +2584,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,7 +2960,7 @@
                   <c:v>TVLSI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Other</c:v>
+                  <c:v>All other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5272,48 +5292,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="4" width="21.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="114.7265625" style="3" customWidth="1"/>
     <col min="6" max="8" width="33.26953125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>376</v>
+      <c r="I1" s="5" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -5324,22 +5345,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -5350,22 +5371,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -5373,25 +5394,25 @@
         <v>2012</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -5399,25 +5420,25 @@
         <v>2013</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="G5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -5428,22 +5449,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -5451,25 +5472,25 @@
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -5480,22 +5501,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -5506,22 +5527,22 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -5532,22 +5553,22 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -5555,25 +5576,25 @@
         <v>2016</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -5581,25 +5602,25 @@
         <v>2016</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="G12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -5607,25 +5628,25 @@
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -5633,25 +5654,25 @@
         <v>2016</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -5659,25 +5680,25 @@
         <v>2017</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -5685,25 +5706,25 @@
         <v>2017</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -5711,28 +5732,28 @@
         <v>2017</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -5740,25 +5761,25 @@
         <v>2017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -5766,25 +5787,25 @@
         <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -5792,25 +5813,25 @@
         <v>2017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -5818,25 +5839,25 @@
         <v>2017</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -5844,25 +5865,25 @@
         <v>2017</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -5870,25 +5891,25 @@
         <v>2018</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -5896,25 +5917,25 @@
         <v>2018</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -5922,28 +5943,28 @@
         <v>2018</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="G25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -5951,25 +5972,25 @@
         <v>2018</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="G26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -5977,25 +5998,25 @@
         <v>2018</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="G27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -6003,25 +6024,25 @@
         <v>2018</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -6029,25 +6050,25 @@
         <v>2018</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -6055,25 +6076,25 @@
         <v>2018</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -6081,25 +6102,25 @@
         <v>2018</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -6107,28 +6128,28 @@
         <v>2018</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -6136,25 +6157,25 @@
         <v>2019</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -6162,25 +6183,25 @@
         <v>2019</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -6188,25 +6209,25 @@
         <v>2019</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -6214,25 +6235,25 @@
         <v>2019</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -6240,25 +6261,25 @@
         <v>2019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -6269,25 +6290,25 @@
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -6298,25 +6319,25 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>67</v>
+        <v>597</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -6327,22 +6348,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -6353,25 +6374,25 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="G41" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -6382,22 +6403,22 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -6408,22 +6429,22 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="G43" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -6434,7 +6455,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>9</v>
@@ -6443,13 +6464,13 @@
         <v>11</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -6457,28 +6478,28 @@
         <v>2019</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="G45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -6486,25 +6507,25 @@
         <v>2019</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="G46" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -6512,25 +6533,25 @@
         <v>2020</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -6538,25 +6559,25 @@
         <v>2020</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -6564,25 +6585,25 @@
         <v>2020</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -6593,22 +6614,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -6619,25 +6640,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -6648,7 +6669,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -6657,13 +6678,13 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -6671,28 +6692,28 @@
         <v>2020</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="I53" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -6703,25 +6724,25 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -6732,22 +6753,22 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="G55" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="I55" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -6755,25 +6776,25 @@
         <v>2020</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="G56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="I56" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -6781,25 +6802,25 @@
         <v>2020</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="I57" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -6807,25 +6828,25 @@
         <v>2020</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="I58" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -6833,25 +6854,25 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -6859,28 +6880,28 @@
         <v>2021</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="G60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -6888,25 +6909,25 @@
         <v>2021</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -6914,25 +6935,25 @@
         <v>2021</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -6940,25 +6961,25 @@
         <v>2021</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -6969,25 +6990,25 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="G64" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="I64" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -6998,22 +7019,22 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -7024,25 +7045,25 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>14</v>
+        <v>598</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -7050,25 +7071,25 @@
         <v>2021</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -7076,25 +7097,25 @@
         <v>2021</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I68" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -7102,25 +7123,25 @@
         <v>2021</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="G69" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="I69" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -7128,28 +7149,28 @@
         <v>2021</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -7157,25 +7178,25 @@
         <v>2021</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="G71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -7183,25 +7204,25 @@
         <v>2021</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -7209,25 +7230,25 @@
         <v>2022</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -7235,28 +7256,28 @@
         <v>2022</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -7264,28 +7285,28 @@
         <v>2022</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -7293,25 +7314,25 @@
         <v>2022</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -7319,25 +7340,25 @@
         <v>2022</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -7348,22 +7369,22 @@
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="I78" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -7374,22 +7395,22 @@
         <v>8</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I79" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -7400,22 +7421,22 @@
         <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G80" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -7426,22 +7447,22 @@
         <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -7452,22 +7473,22 @@
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="I82" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -7478,22 +7499,22 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="G83" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -7504,22 +7525,22 @@
         <v>12</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="I84" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -7527,25 +7548,25 @@
         <v>2022</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -7553,25 +7574,25 @@
         <v>2022</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="I86" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -7579,28 +7600,28 @@
         <v>2022</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="I87" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -7608,25 +7629,25 @@
         <v>2022</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -7634,25 +7655,25 @@
         <v>2022</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="I89" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -7660,28 +7681,28 @@
         <v>2023</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="G90" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="I90" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -7689,25 +7710,25 @@
         <v>2023</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -7715,28 +7736,28 @@
         <v>2023</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -7744,25 +7765,25 @@
         <v>2023</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -7770,25 +7791,25 @@
         <v>2023</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="I94" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -7796,25 +7817,25 @@
         <v>2023</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -7822,25 +7843,25 @@
         <v>2023</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -7851,22 +7872,22 @@
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="G97" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="I97" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -7877,22 +7898,22 @@
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -7903,22 +7924,22 @@
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -7929,25 +7950,25 @@
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="G100" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -7955,25 +7976,25 @@
         <v>2023</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -7984,22 +8005,22 @@
         <v>12</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -8010,25 +8031,25 @@
         <v>12</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="E103" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="I103" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -8036,25 +8057,25 @@
         <v>2023</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="G104" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -8062,25 +8083,25 @@
         <v>2023</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -8088,25 +8109,25 @@
         <v>2023</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -8114,28 +8135,28 @@
         <v>2023</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -8143,28 +8164,28 @@
         <v>2024</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="E108" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -8172,25 +8193,25 @@
         <v>2024</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="H109" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -8198,25 +8219,25 @@
         <v>2024</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -8224,28 +8245,28 @@
         <v>2024</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -8253,28 +8274,28 @@
         <v>2024</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="G112" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -8285,19 +8306,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -8308,25 +8329,25 @@
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="I114" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -8337,22 +8358,22 @@
         <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -8360,25 +8381,25 @@
         <v>2024</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -8389,25 +8410,25 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -8418,22 +8439,22 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -8444,22 +8465,22 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G119" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="I119" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -8470,22 +8491,22 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="G120" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -8496,25 +8517,25 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -8525,22 +8546,22 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -8551,22 +8572,22 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -8574,28 +8595,28 @@
         <v>2024</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="I124" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -8603,25 +8624,25 @@
         <v>2024</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -8629,25 +8650,25 @@
         <v>2024</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -8655,25 +8676,25 @@
         <v>2024</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -8681,25 +8702,25 @@
         <v>2024</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -8707,25 +8728,25 @@
         <v>2024</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -8733,25 +8754,25 @@
         <v>2024</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="G130" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -8759,25 +8780,25 @@
         <v>2024</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -8785,25 +8806,25 @@
         <v>2024</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -8820,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F627AA-E3AE-4351-92AE-68BECE4A1E4C}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8832,10 +8853,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8957,15 +8978,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A18)</f>
@@ -8974,7 +8995,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
@@ -8983,7 +9004,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A20)</f>
@@ -8992,7 +9013,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B21" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A21)</f>
@@ -9001,7 +9022,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B22" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A22)</f>
@@ -9010,7 +9031,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A23)</f>
@@ -9019,7 +9040,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A24)</f>
@@ -9028,7 +9049,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B25" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A25)</f>
@@ -9037,7 +9058,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A26)</f>
@@ -9046,7 +9067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B27" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A27)</f>
@@ -9055,7 +9076,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B28" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
@@ -9064,30 +9085,30 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B29" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A29)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B33" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
@@ -9099,7 +9120,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -9113,7 +9134,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A39)</f>
@@ -9122,7 +9143,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A40)</f>
@@ -9131,7 +9152,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B41" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,"ESSCIRC")+COUNTIF('Ringamp Publication List'!$B$2:$B$997,"ESSERC")</f>
@@ -9140,7 +9161,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A42)</f>
@@ -9149,7 +9170,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B43" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A43)</f>
@@ -9158,7 +9179,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A44)</f>
@@ -9176,7 +9197,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A46)</f>
@@ -9185,7 +9206,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B47" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A47)</f>
@@ -9194,7 +9215,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B48" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A48)</f>
@@ -9203,7 +9224,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>600</v>
       </c>
       <c r="B49" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83318DCB-DEDF-41E9-AE4D-F84F867709C8}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B4E36E-F743-4620-92FD-93A3AA5FEC56}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="610">
   <si>
     <t>Title</t>
   </si>
@@ -1839,6 +1839,33 @@
   </si>
   <si>
     <t>All other</t>
+  </si>
+  <si>
+    <t>12b 500MS/s successive-approximation-registerassisted pipeline analogue-to-digital convertor using a four-stage ring amplifier with coarse-analogue-to-digital convertor embedded</t>
+  </si>
+  <si>
+    <t>10.1049/ell2.70101</t>
+  </si>
+  <si>
+    <t>Liu, Linghao &amp; Ren, Junyan &amp; Fan, Ye.</t>
+  </si>
+  <si>
+    <t>E. Letters</t>
+  </si>
+  <si>
+    <t>This article presents a 12b 500MS/s successive‐approximation‐register‐assisted pipeline analogue‐to‐digital converter. By adopting a new auto‐zero scheme, a calibration‐free four‐stage ring residue amplifier with a small offset cancellation capacitor is proposed. In addition, the coarse‐analogue‐to‐digital converter of the second stage is embedded into the amplification phase, which relaxes the comparison periods of the first and second stages by 25.0% and 17.4%, respectively. Post‐simulated in 28‐nm CMOS technology with a 0.9 V supply, the analogue‐to‐digital converter achieves 62.2 dB SNDR and 78.1 dB SFDR. It consumes 8.45 mW with an on‐chip reference voltage buffer, resulting in Schreier's figure of merit (FoMS) of 166.9 dB.</t>
+  </si>
+  <si>
+    <t>Ye, Siyuan and Gao, Jihang and Li, Jie and Chen, Zhuoyi and Xu, Xinhang and Cui, Jiajia and Luan, Yaohui and Ye, Le and Zhang, Xing and Huang, Ru and Shen, Linxiao</t>
+  </si>
+  <si>
+    <t>This work presents a 2-mW 70.7-dB SNDR 200-MS/s pipelined-successive-approximation-register (SAR) analog-to-digital converter (ADC) with a continuous-time SAR-assisted detect-and-skip (CTDAS) and open-then-close correlated level shifting (OCCLS). In the first-stage SAR ADC, we propose using the continuous-time SAR (CTSAR) as the coarse SAR ADC in the detect-and-skip (DAS) scheme, thus parallelizing MSB conversion with ADC sampling. Furthermore, in the residue amplifier (RA), an OCCLS technique is proposed, which significantly speeds up the first correlated level shifting (CLS) phase by open-loop amplification and consequently enhances the equivalent open-loop gain at negligible extra time cost. An on-chip background self-detect-and-cut loop is used for the OCCLS to attain a PVT-robust high equivalent open-loop gain. For RA implementation, a hybrid static–floating ring-amp structure is adopted to improve the noise performance while fitting in well with the OCCLS scheme. Thanks to the proposed techniques, the 22-nm prototype achieves 70.7-dB SNDR under 200 MS/s while consuming only 2.0 mW from a 0.9-V supply. It measures 177.7-dB FoMs, which is the highest among ADCs with equivalent or higher sampling rates.</t>
+  </si>
+  <si>
+    <t>10.1109/JSSC.2024.3497175</t>
+  </si>
+  <si>
+    <t>A 2-mW 70.7-dB SNDR 200-MS/s Pipelined-SAR ADC Using Continuous-Time SAR-Assisted Detect-and-Skip and Open-Then-Close Correlated Level Shifting</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2187,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,7 +2581,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -2993,7 +3020,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -3005,7 +3032,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5290,11 +5317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8827,6 +8854,128 @@
         <v>595</v>
       </c>
     </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" t="s">
+        <v>601</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I135" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I136" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I137" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I138" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I139" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I140" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I141" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I142" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I143" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I144" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I145" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I146" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I147" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I148" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I132">
     <sortCondition ref="A2:A132"/>
@@ -8842,7 +8991,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8973,7 +9122,7 @@
       </c>
       <c r="B14" s="3">
         <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A14)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -8999,7 +9148,7 @@
       </c>
       <c r="B19" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -9103,7 +9252,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -9112,7 +9261,7 @@
       </c>
       <c r="B33" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -9192,7 +9341,7 @@
       </c>
       <c r="B45" s="3">
         <f>COUNTIF('Ringamp Publication List'!$B$2:$B$997,Analysis!A45)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -9228,7 +9377,7 @@
       </c>
       <c r="B49" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -5320,8 +5320,8 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B4E36E-F743-4620-92FD-93A3AA5FEC56}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA6B347-6367-4606-BD49-3F6BE994F46F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="5980" yWindow="2950" windowWidth="28800" windowHeight="15370" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="618">
   <si>
     <t>Title</t>
   </si>
@@ -1866,6 +1866,30 @@
   </si>
   <si>
     <t>A 2-mW 70.7-dB SNDR 200-MS/s Pipelined-SAR ADC Using Continuous-Time SAR-Assisted Detect-and-Skip and Open-Then-Close Correlated Level Shifting</t>
+  </si>
+  <si>
+    <t>A 12b 400MS/s 4-Time Interleaved Pipelined-SAR ADC with Fully Differential Bias-enhanced Ring Amplifier</t>
+  </si>
+  <si>
+    <t>Jian, Mingchao and Kong, Xiangjian and Zheng, Jiwei and Xie, Huanlin and Guo, Chunbing</t>
+  </si>
+  <si>
+    <t>10.1109/ICICM63644.2024.10814121</t>
+  </si>
+  <si>
+    <t>A 12-bit 400MS/s 4-channel time-interleaved pipelined-SAR ADC with a fully differential bias-enhanced ring amplifier for low-power and high-speed application is presented. The sub-ADC adopts a two-stage pipeline quantization scheme with a 6-bit SAR ADC in the first stage and a 7-bit SAR ADC in the second stage with 1-hit overlapping. To further optimize the speed of the sub-ADCs, a bias-enhanced ring amplifier is proposed. A prototype ADC is designed and simulated in 65nm CMOS technology with a standard 1.2 V supply voltage. With the least-mean-square algorithm calibration, this ADC achieves SNDR of 64.5 dB and SFDR of 86.6 dB. The whole ADC consumes 10.3mW, achieving a FoM of 19.9 fJ/conv-step.</t>
+  </si>
+  <si>
+    <t>ICICM</t>
+  </si>
+  <si>
+    <t>Interleaved, Sim only</t>
+  </si>
+  <si>
+    <t>Sim only</t>
+  </si>
+  <si>
+    <t>FIA, Sim only</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2211,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2605,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -2950,9 +2974,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$38:$A$49</c:f>
+              <c:f>Analysis!$A$38:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>ISSCC</c:v>
                 </c:pt>
@@ -2986,18 +3010,15 @@
                 <c:pt idx="10">
                   <c:v>TVLSI</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>All other</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$38:$B$49</c:f>
+              <c:f>Analysis!$B$38:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -3030,9 +3051,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5320,7 +5338,7 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5504,6 +5522,9 @@
       <c r="C7" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>114</v>
       </c>
@@ -5608,6 +5629,9 @@
       <c r="C11" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>184</v>
       </c>
@@ -5660,6 +5684,9 @@
       <c r="C13" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>207</v>
       </c>
@@ -5819,6 +5846,9 @@
       <c r="C19" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>151</v>
       </c>
@@ -5845,6 +5875,9 @@
       <c r="C20" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>140</v>
       </c>
@@ -5949,6 +5982,9 @@
       <c r="C24" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>189</v>
       </c>
@@ -6004,6 +6040,9 @@
       <c r="C26" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>211</v>
       </c>
@@ -6030,6 +6069,9 @@
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
@@ -6056,6 +6098,9 @@
       <c r="C28" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>284</v>
       </c>
@@ -6082,6 +6127,9 @@
       <c r="C29" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>244</v>
       </c>
@@ -6267,6 +6315,9 @@
       <c r="C36" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E36" s="3" t="s">
         <v>171</v>
       </c>
@@ -6293,6 +6344,9 @@
       <c r="C37" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E37" s="3" t="s">
         <v>164</v>
       </c>
@@ -6941,6 +6995,9 @@
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E61" s="3" t="s">
         <v>28</v>
       </c>
@@ -6993,6 +7050,9 @@
       <c r="C63" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="D63" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E63" s="3" t="s">
         <v>193</v>
       </c>
@@ -7580,6 +7640,9 @@
       <c r="C85" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D85" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E85" s="3" t="s">
         <v>345</v>
       </c>
@@ -7849,6 +7912,9 @@
       <c r="C95" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D95" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E95" s="3" t="s">
         <v>542</v>
       </c>
@@ -8008,6 +8074,9 @@
       <c r="C101" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E101" s="3" t="s">
         <v>566</v>
       </c>
@@ -8413,6 +8482,9 @@
       <c r="C116" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D116" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E116" s="3" t="s">
         <v>529</v>
       </c>
@@ -8628,7 +8700,7 @@
         <v>64</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>303</v>
+        <v>617</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>451</v>
@@ -8838,6 +8910,9 @@
       <c r="C132" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D132" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E132" s="3" t="s">
         <v>561</v>
       </c>
@@ -8864,6 +8939,9 @@
       <c r="C133" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D133" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="E133" t="s">
         <v>601</v>
       </c>
@@ -8907,6 +8985,30 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>613</v>
+      </c>
       <c r="I135" s="3" t="s">
         <v>595</v>
       </c>
@@ -8991,7 +9093,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9122,7 +9224,7 @@
       </c>
       <c r="B14" s="3">
         <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A14)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -9148,7 +9250,7 @@
       </c>
       <c r="B19" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -9252,7 +9354,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -9261,7 +9363,7 @@
       </c>
       <c r="B33" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -9377,7 +9479,7 @@
       </c>
       <c r="B49" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA6B347-6367-4606-BD49-3F6BE994F46F}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23991DB4-EE27-4D68-90EC-226489D7B9E3}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2950" windowWidth="28800" windowHeight="15370" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
+    <workbookView xWindow="12720" yWindow="2140" windowWidth="23990" windowHeight="17770" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
   <sheets>
     <sheet name="Ringamp Publication List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="622">
   <si>
     <t>Title</t>
   </si>
@@ -1883,13 +1883,25 @@
     <t>ICICM</t>
   </si>
   <si>
-    <t>Interleaved, Sim only</t>
-  </si>
-  <si>
-    <t>Sim only</t>
-  </si>
-  <si>
-    <t>FIA, Sim only</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>10.1109/ICICM63644.2024.10814279</t>
+  </si>
+  <si>
+    <t>Li, Yunchu and Yan, Rongqiu</t>
+  </si>
+  <si>
+    <t>This paper presents a ring amplifier based pipelined-SAR analog-to-digital converter (ADC). In advanced technology, the ring amplifier's three-stage inverter provides limited gain, so the self-biased cascoded output stage is designed to enhance the gain of the ring amplifier. In addition, a continuous time SAR is adopted to speed up the second stage, which improves the power efficiency and is not affected by the frequency of the input signal. This ADC is completed with a 28 nm CMOS process. The 12-bit ADC achieves 64.1 dB signal-to-noise-and-distortion-ratio (SNDR) at a Nyquist input, with a sampling rate of 250 MS/s and a power consumption of 0.8 mW.</t>
+  </si>
+  <si>
+    <t>An Improved Cascoded Ring Amplifier Based Pipelined-SAR ADC with a Continuous Time Second Stage</t>
+  </si>
+  <si>
+    <t>Silicon?</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2223,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2617,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -5335,11 +5347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FCC8A-E42D-4F65-9CF1-EB965B6A3F77}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5347,13 +5359,14 @@
     <col min="1" max="1" width="7.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="114.7265625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="33.26953125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.6328125" style="3"/>
+    <col min="4" max="4" width="15.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.7265625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="33.26953125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -5364,25 +5377,28 @@
         <v>325</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -5392,23 +5408,26 @@
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -5418,23 +5437,26 @@
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2012</v>
       </c>
@@ -5444,23 +5466,26 @@
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2013</v>
       </c>
@@ -5470,23 +5495,26 @@
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2014</v>
       </c>
@@ -5496,23 +5524,26 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2015</v>
       </c>
@@ -5525,23 +5556,23 @@
       <c r="D7" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2015</v>
       </c>
@@ -5551,23 +5582,26 @@
       <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2015</v>
       </c>
@@ -5577,23 +5611,26 @@
       <c r="C9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2015</v>
       </c>
@@ -5603,23 +5640,26 @@
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2016</v>
       </c>
@@ -5632,23 +5672,23 @@
       <c r="D11" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2016</v>
       </c>
@@ -5658,23 +5698,26 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2016</v>
       </c>
@@ -5687,23 +5730,23 @@
       <c r="D13" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2016</v>
       </c>
@@ -5713,23 +5756,26 @@
       <c r="C14" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2017</v>
       </c>
@@ -5739,23 +5785,26 @@
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -5765,23 +5814,26 @@
       <c r="C16" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2017</v>
       </c>
@@ -5792,25 +5844,28 @@
         <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -5820,23 +5875,26 @@
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -5849,23 +5907,23 @@
       <c r="D19" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2017</v>
       </c>
@@ -5878,23 +5936,23 @@
       <c r="D20" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
@@ -5904,23 +5962,26 @@
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2017</v>
       </c>
@@ -5930,23 +5991,26 @@
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
@@ -5956,23 +6020,26 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2018</v>
       </c>
@@ -5985,23 +6052,23 @@
       <c r="D24" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2018</v>
       </c>
@@ -6012,25 +6079,28 @@
         <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2018</v>
       </c>
@@ -6043,23 +6113,23 @@
       <c r="D26" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2018</v>
       </c>
@@ -6072,23 +6142,23 @@
       <c r="D27" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2018</v>
       </c>
@@ -6101,23 +6171,23 @@
       <c r="D28" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2018</v>
       </c>
@@ -6130,23 +6200,23 @@
       <c r="D29" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2018</v>
       </c>
@@ -6156,23 +6226,26 @@
       <c r="C30" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2018</v>
       </c>
@@ -6182,23 +6255,26 @@
       <c r="C31" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2018</v>
       </c>
@@ -6209,25 +6285,28 @@
         <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -6237,23 +6316,26 @@
       <c r="C33" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -6263,23 +6345,26 @@
       <c r="C34" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2019</v>
       </c>
@@ -6289,23 +6374,26 @@
       <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2019</v>
       </c>
@@ -6318,23 +6406,23 @@
       <c r="D36" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2019</v>
       </c>
@@ -6347,23 +6435,23 @@
       <c r="D37" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2019</v>
       </c>
@@ -6374,25 +6462,28 @@
         <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2019</v>
       </c>
@@ -6403,25 +6494,28 @@
         <v>35</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2019</v>
       </c>
@@ -6431,23 +6525,26 @@
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2019</v>
       </c>
@@ -6458,25 +6555,28 @@
         <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2019</v>
       </c>
@@ -6486,23 +6586,26 @@
       <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2019</v>
       </c>
@@ -6512,23 +6615,26 @@
       <c r="C43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2019</v>
       </c>
@@ -6538,23 +6644,26 @@
       <c r="C44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2019</v>
       </c>
@@ -6565,25 +6674,28 @@
         <v>221</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2019</v>
       </c>
@@ -6593,23 +6705,26 @@
       <c r="C46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2020</v>
       </c>
@@ -6619,23 +6734,26 @@
       <c r="C47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2020</v>
       </c>
@@ -6645,23 +6763,26 @@
       <c r="C48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2020</v>
       </c>
@@ -6671,23 +6792,26 @@
       <c r="C49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2020</v>
       </c>
@@ -6697,23 +6821,26 @@
       <c r="C50" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2020</v>
       </c>
@@ -6724,25 +6851,28 @@
         <v>308</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2020</v>
       </c>
@@ -6752,23 +6882,26 @@
       <c r="C52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2020</v>
       </c>
@@ -6779,25 +6912,28 @@
         <v>323</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2020</v>
       </c>
@@ -6808,25 +6944,28 @@
         <v>308</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2020</v>
       </c>
@@ -6836,23 +6975,26 @@
       <c r="C55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2020</v>
       </c>
@@ -6862,23 +7004,26 @@
       <c r="C56" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2020</v>
       </c>
@@ -6888,23 +7033,26 @@
       <c r="C57" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2020</v>
       </c>
@@ -6914,23 +7062,26 @@
       <c r="C58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2021</v>
       </c>
@@ -6940,23 +7091,26 @@
       <c r="C59" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2021</v>
       </c>
@@ -6967,25 +7121,28 @@
         <v>596</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2021</v>
       </c>
@@ -6998,23 +7155,23 @@
       <c r="D61" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2021</v>
       </c>
@@ -7024,23 +7181,26 @@
       <c r="C62" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2021</v>
       </c>
@@ -7053,23 +7213,23 @@
       <c r="D63" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2021</v>
       </c>
@@ -7080,25 +7240,28 @@
         <v>35</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2021</v>
       </c>
@@ -7108,23 +7271,26 @@
       <c r="C65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2021</v>
       </c>
@@ -7135,25 +7301,28 @@
         <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2021</v>
       </c>
@@ -7163,23 +7332,26 @@
       <c r="C67" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2021</v>
       </c>
@@ -7189,23 +7361,26 @@
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2021</v>
       </c>
@@ -7215,23 +7390,26 @@
       <c r="C69" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2021</v>
       </c>
@@ -7242,25 +7420,28 @@
         <v>327</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2021</v>
       </c>
@@ -7270,23 +7451,26 @@
       <c r="C71" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2021</v>
       </c>
@@ -7296,23 +7480,26 @@
       <c r="C72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2022</v>
       </c>
@@ -7322,23 +7509,26 @@
       <c r="C73" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2022</v>
       </c>
@@ -7349,25 +7539,28 @@
         <v>35</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2022</v>
       </c>
@@ -7378,25 +7571,28 @@
         <v>352</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2022</v>
       </c>
@@ -7406,23 +7602,26 @@
       <c r="C76" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2022</v>
       </c>
@@ -7432,23 +7631,26 @@
       <c r="C77" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2022</v>
       </c>
@@ -7458,23 +7660,26 @@
       <c r="C78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2022</v>
       </c>
@@ -7484,23 +7689,26 @@
       <c r="C79" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2022</v>
       </c>
@@ -7510,23 +7718,26 @@
       <c r="C80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2022</v>
       </c>
@@ -7536,23 +7747,26 @@
       <c r="C81" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2022</v>
       </c>
@@ -7562,23 +7776,26 @@
       <c r="C82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2022</v>
       </c>
@@ -7588,23 +7805,26 @@
       <c r="C83" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2022</v>
       </c>
@@ -7614,23 +7834,26 @@
       <c r="C84" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2022</v>
       </c>
@@ -7643,23 +7866,23 @@
       <c r="D85" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2022</v>
       </c>
@@ -7669,23 +7892,26 @@
       <c r="C86" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2022</v>
       </c>
@@ -7696,25 +7922,28 @@
         <v>64</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2022</v>
       </c>
@@ -7724,23 +7953,26 @@
       <c r="C88" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2022</v>
       </c>
@@ -7750,23 +7982,26 @@
       <c r="C89" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2023</v>
       </c>
@@ -7777,25 +8012,28 @@
         <v>596</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2023</v>
       </c>
@@ -7805,23 +8043,26 @@
       <c r="C91" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2023</v>
       </c>
@@ -7832,25 +8073,28 @@
         <v>35</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2023</v>
       </c>
@@ -7860,23 +8104,26 @@
       <c r="C93" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2023</v>
       </c>
@@ -7886,23 +8133,26 @@
       <c r="C94" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2023</v>
       </c>
@@ -7913,25 +8163,25 @@
         <v>596</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E95" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2023</v>
       </c>
@@ -7941,23 +8191,26 @@
       <c r="C96" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2023</v>
       </c>
@@ -7967,23 +8220,26 @@
       <c r="C97" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2023</v>
       </c>
@@ -7993,23 +8249,26 @@
       <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="D98" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2023</v>
       </c>
@@ -8019,23 +8278,26 @@
       <c r="C99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="D99" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2023</v>
       </c>
@@ -8046,25 +8308,28 @@
         <v>490</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2023</v>
       </c>
@@ -8077,23 +8342,23 @@
       <c r="D101" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2023</v>
       </c>
@@ -8103,23 +8368,26 @@
       <c r="C102" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="D102" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2023</v>
       </c>
@@ -8130,25 +8398,28 @@
         <v>490</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2023</v>
       </c>
@@ -8158,23 +8429,26 @@
       <c r="C104" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="I104" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2023</v>
       </c>
@@ -8184,23 +8458,26 @@
       <c r="C105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2023</v>
       </c>
@@ -8210,23 +8487,26 @@
       <c r="C106" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="D106" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="I106" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2023</v>
       </c>
@@ -8237,25 +8517,28 @@
         <v>64</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2024</v>
       </c>
@@ -8266,25 +8549,28 @@
         <v>35</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="I108" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2024</v>
       </c>
@@ -8294,23 +8580,26 @@
       <c r="C109" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="D109" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2024</v>
       </c>
@@ -8320,23 +8609,26 @@
       <c r="C110" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="D110" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2024</v>
       </c>
@@ -8347,25 +8639,28 @@
         <v>591</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2024</v>
       </c>
@@ -8376,25 +8671,28 @@
         <v>64</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2024</v>
       </c>
@@ -8404,20 +8702,23 @@
       <c r="C113" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="I113" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2024</v>
       </c>
@@ -8428,25 +8729,28 @@
         <v>35</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2024</v>
       </c>
@@ -8456,23 +8760,26 @@
       <c r="C115" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="D115" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2024</v>
       </c>
@@ -8485,23 +8792,23 @@
       <c r="D116" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2024</v>
       </c>
@@ -8512,25 +8819,28 @@
         <v>35</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2024</v>
       </c>
@@ -8540,23 +8850,26 @@
       <c r="C118" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="D118" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2024</v>
       </c>
@@ -8566,23 +8879,26 @@
       <c r="C119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="D119" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2024</v>
       </c>
@@ -8592,23 +8908,26 @@
       <c r="C120" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="D120" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2024</v>
       </c>
@@ -8619,25 +8938,28 @@
         <v>35</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="I121" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2024</v>
       </c>
@@ -8647,23 +8969,26 @@
       <c r="C122" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="D122" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2024</v>
       </c>
@@ -8673,23 +8998,26 @@
       <c r="C123" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2024</v>
       </c>
@@ -8700,25 +9028,28 @@
         <v>64</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="I124" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2024</v>
       </c>
@@ -8728,23 +9059,26 @@
       <c r="C125" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2024</v>
       </c>
@@ -8754,23 +9088,26 @@
       <c r="C126" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="I126" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J126" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2024</v>
       </c>
@@ -8780,23 +9117,26 @@
       <c r="C127" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="D127" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="I127" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2024</v>
       </c>
@@ -8806,23 +9146,26 @@
       <c r="C128" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="D128" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J128" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>2024</v>
       </c>
@@ -8832,23 +9175,26 @@
       <c r="C129" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="D129" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="I129" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2024</v>
       </c>
@@ -8858,23 +9204,26 @@
       <c r="C130" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="D130" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="I130" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>2024</v>
       </c>
@@ -8884,23 +9233,26 @@
       <c r="C131" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="D131" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2024</v>
       </c>
@@ -8913,23 +9265,23 @@
       <c r="D132" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2024</v>
       </c>
@@ -8942,23 +9294,23 @@
       <c r="D133" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>601</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2024</v>
       </c>
@@ -8968,23 +9320,26 @@
       <c r="C134" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2024</v>
       </c>
@@ -8995,91 +9350,118 @@
         <v>64</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="I136" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I137" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I138" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I139" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I140" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I141" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I142" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I143" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I144" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I145" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I146" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I147" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I148" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J137" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J138" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J139" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J140" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J141" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J142" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J143" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J144" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J145" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J146" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J147" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J148" s="3" t="s">
         <v>595</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I132">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J132">
     <sortCondition ref="A2:A132"/>
     <sortCondition ref="B2:B132"/>
   </sortState>
@@ -9093,7 +9475,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9224,7 +9606,7 @@
       </c>
       <c r="B14" s="3">
         <f>COUNTIF('Ringamp Publication List'!$A$2:$A$995,Analysis!A14)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -9240,7 +9622,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A18)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A18)</f>
         <v>36</v>
       </c>
     </row>
@@ -9249,8 +9631,8 @@
         <v>64</v>
       </c>
       <c r="B19" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A19)</f>
-        <v>42</v>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A19)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -9258,7 +9640,7 @@
         <v>327</v>
       </c>
       <c r="B20" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A20)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A20)</f>
         <v>13</v>
       </c>
     </row>
@@ -9267,7 +9649,7 @@
         <v>308</v>
       </c>
       <c r="B21" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A21)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A21)</f>
         <v>4</v>
       </c>
     </row>
@@ -9276,7 +9658,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A22)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -9285,7 +9667,7 @@
         <v>226</v>
       </c>
       <c r="B23" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A23)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A23)</f>
         <v>5</v>
       </c>
     </row>
@@ -9294,7 +9676,7 @@
         <v>174</v>
       </c>
       <c r="B24" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A24)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -9303,7 +9685,7 @@
         <v>323</v>
       </c>
       <c r="B25" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A25)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -9312,7 +9694,7 @@
         <v>221</v>
       </c>
       <c r="B26" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A26)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A26)</f>
         <v>2</v>
       </c>
     </row>
@@ -9321,7 +9703,7 @@
         <v>261</v>
       </c>
       <c r="B27" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A27)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -9330,7 +9712,7 @@
         <v>527</v>
       </c>
       <c r="B28" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A28)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A28)</f>
         <v>2</v>
       </c>
     </row>
@@ -9339,7 +9721,7 @@
         <v>593</v>
       </c>
       <c r="B29" s="3">
-        <f>COUNTIF('Ringamp Publication List'!$C$2:$D$997,Analysis!A29)</f>
+        <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A29)</f>
         <v>0</v>
       </c>
     </row>
@@ -9354,7 +9736,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -9363,7 +9745,7 @@
       </c>
       <c r="B33" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -9479,7 +9861,7 @@
       </c>
       <c r="B49" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/RingampSurvey.xlsx
+++ b/data/RingampSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/benjamin_hershberg_intel_com/Documents/Documents/GitHub/RingampSurvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23991DB4-EE27-4D68-90EC-226489D7B9E3}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{9FBB236B-CF51-4197-B165-772080A6ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0F2497-8378-4D60-93DF-358BBA7A2176}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="2140" windowWidth="23990" windowHeight="17770" xr2:uid="{F214066B-E69B-4EBB-B66C-26071D350487}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="621">
   <si>
     <t>Title</t>
   </si>
@@ -1815,9 +1815,6 @@
   </si>
   <si>
     <t>VCO, SAR, Interleaved</t>
-  </si>
-  <si>
-    <t>General</t>
   </si>
   <si>
     <t>This work presents a discrete-time (DT) delta sigma modulator (DSM) ADC that uses ring amplifiers to relax critical speed and efficiency bottlenecks. The DSM is designed as a 3 rd -order Cascade of Integrator with Feed Forward (CIFF) with a 4-bit quantizer, and it achieves a peak SNDR of 67dB and DR of 70.0dB with 47.5MHz bandwidth when clocked at 950MHz. This is the highest bandwidth reported to-date among single-channel DT DSM ADCs and demonstrates a viable alternative to continuous-time (CT) DSM ADCs for wideband oversampling applications. With a power consumption of 4.7mW from a 1V supply, FOMs and FOMw are 167.0dB and 27.0fJ/c.s. respectively, demonstrating efficient DT delta-sigma conversion with high bandwidth.</t>
@@ -2602,7 +2599,7 @@
                   <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>General</c:v>
+                  <c:v>Non-Specific</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2647,7 +2644,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,8 +5347,8 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5377,7 +5374,7 @@
         <v>325</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>93</v>
@@ -5409,7 +5406,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>175</v>
@@ -5438,7 +5435,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>102</v>
@@ -5467,7 +5464,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>167</v>
@@ -5496,7 +5493,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>98</v>
@@ -5525,7 +5522,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>214</v>
@@ -5554,7 +5551,7 @@
         <v>327</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>114</v>
@@ -5569,7 +5566,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5583,7 +5580,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>156</v>
@@ -5612,7 +5609,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>254</v>
@@ -5641,7 +5638,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>251</v>
@@ -5670,7 +5667,7 @@
         <v>327</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>184</v>
@@ -5685,7 +5682,7 @@
         <v>186</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5699,7 +5696,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>109</v>
@@ -5714,7 +5711,7 @@
         <v>112</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5725,10 +5722,10 @@
         <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>207</v>
@@ -5743,7 +5740,7 @@
         <v>209</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5757,7 +5754,7 @@
         <v>327</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>137</v>
@@ -5772,7 +5769,7 @@
         <v>139</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5786,7 +5783,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>159</v>
@@ -5812,10 +5809,10 @@
         <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>122</v>
@@ -5830,7 +5827,7 @@
         <v>125</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -5844,7 +5841,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>324</v>
@@ -5862,7 +5859,7 @@
         <v>205</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -5876,7 +5873,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>90</v>
@@ -5891,7 +5888,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -5905,7 +5902,7 @@
         <v>327</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>151</v>
@@ -5920,7 +5917,7 @@
         <v>154</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -5931,10 +5928,10 @@
         <v>143</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>140</v>
@@ -5949,7 +5946,7 @@
         <v>144</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -5963,7 +5960,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>222</v>
@@ -5992,7 +5989,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>94</v>
@@ -6021,7 +6018,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>76</v>
@@ -6036,7 +6033,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -6047,10 +6044,10 @@
         <v>188</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>189</v>
@@ -6065,7 +6062,7 @@
         <v>190</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -6079,7 +6076,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>324</v>
@@ -6097,7 +6094,7 @@
         <v>87</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -6111,7 +6108,7 @@
         <v>327</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>211</v>
@@ -6126,7 +6123,7 @@
         <v>212</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -6140,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>81</v>
@@ -6155,7 +6152,7 @@
         <v>82</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -6166,10 +6163,10 @@
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>284</v>
@@ -6184,7 +6181,7 @@
         <v>286</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -6195,10 +6192,10 @@
         <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>244</v>
@@ -6213,7 +6210,7 @@
         <v>246</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -6227,7 +6224,7 @@
         <v>327</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>146</v>
@@ -6242,7 +6239,7 @@
         <v>149</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -6253,10 +6250,10 @@
         <v>237</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>234</v>
@@ -6271,7 +6268,7 @@
         <v>236</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -6285,7 +6282,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>324</v>
@@ -6303,7 +6300,7 @@
         <v>274</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -6314,10 +6311,10 @@
         <v>134</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>131</v>
@@ -6332,7 +6329,7 @@
         <v>135</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -6346,7 +6343,7 @@
         <v>226</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>268</v>
@@ -6361,7 +6358,7 @@
         <v>270</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -6375,7 +6372,7 @@
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>61</v>
@@ -6390,7 +6387,7 @@
         <v>62</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -6404,7 +6401,7 @@
         <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>171</v>
@@ -6419,7 +6416,7 @@
         <v>173</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -6430,10 +6427,10 @@
         <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>164</v>
@@ -6448,7 +6445,7 @@
         <v>166</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -6462,7 +6459,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>493</v>
@@ -6494,7 +6491,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>324</v>
@@ -6509,7 +6506,7 @@
         <v>65</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>384</v>
@@ -6526,7 +6523,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>70</v>
@@ -6555,7 +6552,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>493</v>
@@ -6587,7 +6584,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>73</v>
@@ -6616,7 +6613,7 @@
         <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>275</v>
@@ -6645,7 +6642,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>9</v>
@@ -6674,7 +6671,7 @@
         <v>221</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>322</v>
@@ -6692,7 +6689,7 @@
         <v>220</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -6706,7 +6703,7 @@
         <v>64</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>291</v>
@@ -6721,7 +6718,7 @@
         <v>294</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -6735,7 +6732,7 @@
         <v>64</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>118</v>
@@ -6750,7 +6747,7 @@
         <v>121</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -6764,7 +6761,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>180</v>
@@ -6779,7 +6776,7 @@
         <v>182</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -6793,7 +6790,7 @@
         <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>52</v>
@@ -6808,7 +6805,7 @@
         <v>54</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -6822,7 +6819,7 @@
         <v>226</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>225</v>
@@ -6837,7 +6834,7 @@
         <v>229</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -6851,7 +6848,7 @@
         <v>308</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>303</v>
@@ -6883,7 +6880,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -6912,7 +6909,7 @@
         <v>323</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>322</v>
@@ -6930,7 +6927,7 @@
         <v>242</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -6944,7 +6941,7 @@
         <v>308</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>303</v>
@@ -6976,7 +6973,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>331</v>
@@ -7005,7 +7002,7 @@
         <v>327</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>230</v>
@@ -7020,7 +7017,7 @@
         <v>233</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -7031,10 +7028,10 @@
         <v>237</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>280</v>
@@ -7049,7 +7046,7 @@
         <v>282</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -7063,7 +7060,7 @@
         <v>35</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>57</v>
@@ -7092,7 +7089,7 @@
         <v>261</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>258</v>
@@ -7107,7 +7104,7 @@
         <v>262</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -7118,10 +7115,10 @@
         <v>317</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>303</v>
@@ -7139,7 +7136,7 @@
         <v>316</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -7153,7 +7150,7 @@
         <v>64</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>28</v>
@@ -7168,7 +7165,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -7182,7 +7179,7 @@
         <v>327</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>34</v>
@@ -7194,10 +7191,10 @@
         <v>32</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -7211,7 +7208,7 @@
         <v>196</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>193</v>
@@ -7226,7 +7223,7 @@
         <v>197</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -7240,7 +7237,7 @@
         <v>35</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>303</v>
@@ -7272,7 +7269,7 @@
         <v>35</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>48</v>
@@ -7301,7 +7298,7 @@
         <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>324</v>
@@ -7316,7 +7313,7 @@
         <v>14</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>395</v>
@@ -7330,10 +7327,10 @@
         <v>143</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>199</v>
@@ -7348,7 +7345,7 @@
         <v>201</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -7362,7 +7359,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>45</v>
@@ -7377,7 +7374,7 @@
         <v>43</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -7391,7 +7388,7 @@
         <v>327</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>247</v>
@@ -7406,7 +7403,7 @@
         <v>250</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -7420,7 +7417,7 @@
         <v>327</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>374</v>
@@ -7438,7 +7435,7 @@
         <v>321</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -7449,10 +7446,10 @@
         <v>237</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>263</v>
@@ -7467,7 +7464,7 @@
         <v>266</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -7481,7 +7478,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>40</v>
@@ -7510,7 +7507,7 @@
         <v>555</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>552</v>
@@ -7525,7 +7522,7 @@
         <v>554</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -7539,7 +7536,7 @@
         <v>35</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>324</v>
@@ -7557,7 +7554,7 @@
         <v>342</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -7571,7 +7568,7 @@
         <v>352</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>221</v>
@@ -7589,7 +7586,7 @@
         <v>372</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -7603,7 +7600,7 @@
         <v>308</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>365</v>
@@ -7618,7 +7615,7 @@
         <v>364</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -7632,7 +7629,7 @@
         <v>308</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>365</v>
@@ -7647,7 +7644,7 @@
         <v>508</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -7661,7 +7658,7 @@
         <v>64</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>336</v>
@@ -7690,7 +7687,7 @@
         <v>327</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>106</v>
@@ -7719,7 +7716,7 @@
         <v>64</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>22</v>
@@ -7748,7 +7745,7 @@
         <v>64</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>19</v>
@@ -7777,7 +7774,7 @@
         <v>64</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>351</v>
@@ -7806,7 +7803,7 @@
         <v>527</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>360</v>
@@ -7821,7 +7818,7 @@
         <v>362</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -7835,7 +7832,7 @@
         <v>327</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>369</v>
@@ -7850,7 +7847,7 @@
         <v>371</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -7864,7 +7861,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>345</v>
@@ -7879,7 +7876,7 @@
         <v>350</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -7893,7 +7890,7 @@
         <v>64</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>296</v>
@@ -7908,7 +7905,7 @@
         <v>298</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -7922,7 +7919,7 @@
         <v>64</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>517</v>
@@ -7940,7 +7937,7 @@
         <v>298</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -7954,7 +7951,7 @@
         <v>226</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>357</v>
@@ -7969,7 +7966,7 @@
         <v>358</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -7983,7 +7980,7 @@
         <v>226</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>357</v>
@@ -7998,7 +7995,7 @@
         <v>358</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -8009,10 +8006,10 @@
         <v>502</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>503</v>
@@ -8030,7 +8027,7 @@
         <v>505</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -8044,7 +8041,7 @@
         <v>64</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>519</v>
@@ -8059,7 +8056,7 @@
         <v>520</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -8073,7 +8070,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>406</v>
@@ -8091,7 +8088,7 @@
         <v>403</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -8105,7 +8102,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>509</v>
@@ -8120,7 +8117,7 @@
         <v>511</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -8134,7 +8131,7 @@
         <v>327</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>408</v>
@@ -8149,7 +8146,7 @@
         <v>410</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -8160,10 +8157,10 @@
         <v>543</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>542</v>
@@ -8178,7 +8175,7 @@
         <v>544</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -8192,7 +8189,7 @@
         <v>64</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>547</v>
@@ -8207,7 +8204,7 @@
         <v>548</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -8221,7 +8218,7 @@
         <v>469</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>468</v>
@@ -8236,7 +8233,7 @@
         <v>471</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -8250,7 +8247,7 @@
         <v>35</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>474</v>
@@ -8265,7 +8262,7 @@
         <v>475</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -8279,7 +8276,7 @@
         <v>35</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>474</v>
@@ -8294,7 +8291,7 @@
         <v>475</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -8308,7 +8305,7 @@
         <v>490</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>493</v>
@@ -8323,10 +8320,10 @@
         <v>494</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
@@ -8340,7 +8337,7 @@
         <v>64</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>566</v>
@@ -8355,7 +8352,7 @@
         <v>567</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
@@ -8369,7 +8366,7 @@
         <v>469</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>465</v>
@@ -8384,7 +8381,7 @@
         <v>466</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -8398,7 +8395,7 @@
         <v>490</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>493</v>
@@ -8416,7 +8413,7 @@
         <v>492</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -8427,10 +8424,10 @@
         <v>459</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>455</v>
@@ -8445,7 +8442,7 @@
         <v>457</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
@@ -8459,7 +8456,7 @@
         <v>35</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>412</v>
@@ -8474,7 +8471,7 @@
         <v>413</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -8485,10 +8482,10 @@
         <v>415</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>533</v>
@@ -8503,7 +8500,7 @@
         <v>534</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -8517,7 +8514,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>303</v>
@@ -8535,7 +8532,7 @@
         <v>462</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
@@ -8549,7 +8546,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>517</v>
@@ -8567,7 +8564,7 @@
         <v>515</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -8581,7 +8578,7 @@
         <v>64</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>442</v>
@@ -8596,7 +8593,7 @@
         <v>443</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -8610,7 +8607,7 @@
         <v>64</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>538</v>
@@ -8625,7 +8622,7 @@
         <v>539</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -8639,7 +8636,7 @@
         <v>591</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>592</v>
@@ -8657,7 +8654,7 @@
         <v>588</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
@@ -8671,7 +8668,7 @@
         <v>64</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>303</v>
@@ -8689,7 +8686,7 @@
         <v>448</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -8703,7 +8700,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>424</v>
@@ -8715,7 +8712,7 @@
         <v>423</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -8729,7 +8726,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>324</v>
@@ -8747,7 +8744,7 @@
         <v>483</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -8761,7 +8758,7 @@
         <v>64</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>557</v>
@@ -8776,7 +8773,7 @@
         <v>558</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -8787,10 +8784,10 @@
         <v>532</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>529</v>
@@ -8805,7 +8802,7 @@
         <v>530</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -8819,7 +8816,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>406</v>
@@ -8837,7 +8834,7 @@
         <v>417</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -8851,7 +8848,7 @@
         <v>64</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>420</v>
@@ -8866,7 +8863,7 @@
         <v>421</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -8880,7 +8877,7 @@
         <v>35</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>427</v>
@@ -8895,7 +8892,7 @@
         <v>429</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -8909,7 +8906,7 @@
         <v>64</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>430</v>
@@ -8924,7 +8921,7 @@
         <v>432</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -8938,7 +8935,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>324</v>
@@ -8956,7 +8953,7 @@
         <v>478</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -8967,10 +8964,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>498</v>
@@ -8985,7 +8982,7 @@
         <v>499</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -8999,7 +8996,7 @@
         <v>64</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>575</v>
@@ -9014,7 +9011,7 @@
         <v>576</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -9028,7 +9025,7 @@
         <v>64</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>303</v>
@@ -9046,7 +9043,7 @@
         <v>454</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -9060,7 +9057,7 @@
         <v>527</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>523</v>
@@ -9075,7 +9072,7 @@
         <v>524</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -9089,7 +9086,7 @@
         <v>64</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>571</v>
@@ -9104,7 +9101,7 @@
         <v>572</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -9118,7 +9115,7 @@
         <v>64</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>579</v>
@@ -9133,7 +9130,7 @@
         <v>580</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -9147,7 +9144,7 @@
         <v>35</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>583</v>
@@ -9162,7 +9159,7 @@
         <v>584</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -9176,7 +9173,7 @@
         <v>226</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>485</v>
@@ -9191,7 +9188,7 @@
         <v>486</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -9205,7 +9202,7 @@
         <v>35</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>434</v>
@@ -9220,7 +9217,7 @@
         <v>436</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -9234,7 +9231,7 @@
         <v>64</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>439</v>
@@ -9249,7 +9246,7 @@
         <v>440</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -9260,10 +9257,10 @@
         <v>564</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>561</v>
@@ -9278,7 +9275,7 @@
         <v>562</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -9286,28 +9283,28 @@
         <v>2024</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F133" t="s">
+        <v>600</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="I133" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -9321,22 +9318,22 @@
         <v>64</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H134" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J134" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -9344,31 +9341,31 @@
         <v>2024</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F135" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H135" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="J135" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -9376,88 +9373,88 @@
         <v>2024</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="I136" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I136" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="J136" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J137" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J138" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J139" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J140" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J141" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J142" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J143" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J144" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -9474,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F627AA-E3AE-4351-92AE-68BECE4A1E4C}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9718,11 +9715,11 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B29" s="3">
         <f>COUNTIF('Ringamp Publication List'!$C$2:$E$997,Analysis!A29)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -9736,7 +9733,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B18:B29)</f>
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -9857,7 +9854,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B49" s="3">
         <f>COUNTA('Ringamp Publication List'!$A$2:$A$997)-SUM(B38:B48)</f>
